--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail0 Features.xlsx
@@ -5388,7 +5388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5400,28 +5400,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5442,115 +5440,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5567,72 +5555,66 @@
         <v>2.401375553540107e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.592918941498099</v>
+        <v>1.701302079022366e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>10.16223724878704</v>
+        <v>5.291545963466663e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.701302079022366e-06</v>
+        <v>0.08764496437984196</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.291545963466663e-06</v>
+        <v>0.3890126464333261</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08764496437984196</v>
+        <v>0.1586345257941663</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3890126464333261</v>
+        <v>1.917021289632257</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1586345257941663</v>
+        <v>2.400598516110231</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.937905895208321</v>
+        <v>4.825699397547147</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.400598516110231</v>
+        <v>3.641326044215811e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.825699397547147</v>
+        <v>1271327974.521648</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.641326044215811e-16</v>
+        <v>9.480803531850663e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1271327974.521648</v>
+        <v>588.5383592311427</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.480803531850663e-08</v>
+        <v>0.0001661855920570054</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>588.5383592311427</v>
+        <v>11.22504571673763</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001661855920570054</v>
+        <v>1.128018768122008</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.22504571673763</v>
+        <v>0.02093965902857185</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.128018768122008</v>
+        <v>3.174700081349635</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02093965902857185</v>
+        <v>0.9593939295221584</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.174700081349635</v>
+        <v>1.112882851819512</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9593939295221584</v>
+        <v>71</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.112882851819512</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.148296419802536</v>
       </c>
     </row>
@@ -5647,72 +5629,66 @@
         <v>1.847427302806079e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.352388036684373</v>
+        <v>1.197212221510695e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3.930181358122297</v>
+        <v>5.308129189850695e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.197212221510695e-06</v>
+        <v>0.06826641725629469</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.308129189850695e-06</v>
+        <v>0.3723881469004293</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.06826641725629469</v>
+        <v>0.1429798439270666</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3723881469004293</v>
+        <v>1.910989803725294</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1429798439270666</v>
+        <v>2.883689458654863</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.936543673324945</v>
+        <v>4.739864054719853</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.883689458654863</v>
+        <v>3.139784069143286e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.739864054719853</v>
+        <v>1451400450.089933</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.139784069143286e-16</v>
+        <v>8.279977301343491e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1451400450.089933</v>
+        <v>661.4153784865895</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.279977301343491e-08</v>
+        <v>0.0001524529919187215</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>661.4153784865895</v>
+        <v>11.1596190454986</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001524529919187215</v>
+        <v>1.114708345733787</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.1596190454986</v>
+        <v>0.01898605307921064</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.114708345733787</v>
+        <v>3.225843136831533</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01898605307921064</v>
+        <v>0.9592649962718589</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.225843136831533</v>
+        <v>1.113449286273173</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9592649962718589</v>
+        <v>71</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.113449286273173</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.196455067314657</v>
       </c>
     </row>
@@ -5727,72 +5703,66 @@
         <v>1.572150242713864e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.3459187296652553</v>
+        <v>8.241047290683149e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.35792717764744</v>
+        <v>5.317452960367183e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.241047290683149e-07</v>
+        <v>0.04067568277005896</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.317452960367183e-06</v>
+        <v>0.3185833794317641</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04067568277005896</v>
+        <v>0.1028798621615102</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3185833794317641</v>
+        <v>1.919116347398719</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1028798621615102</v>
+        <v>3.1274398746019</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.940928357445361</v>
+        <v>4.678564141459172</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.1274398746019</v>
+        <v>3.222599811075391e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.678564141459172</v>
+        <v>1406865234.332263</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.222599811075391e-16</v>
+        <v>8.554261080731262e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1406865234.332263</v>
+        <v>637.8394443499245</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.554261080731262e-08</v>
+        <v>0.0001427898935806249</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>637.8394443499245</v>
+        <v>9.595904145759848</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001427898935806249</v>
+        <v>1.238232454935545</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.595904145759848</v>
+        <v>0.01314828993328818</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.238232454935545</v>
+        <v>3.484245230560717</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01314828993328818</v>
+        <v>0.9595517825597859</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.484245230560717</v>
+        <v>1.093327886844216</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9595517825597859</v>
+        <v>46</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.093327886844216</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.29558626808556</v>
       </c>
     </row>
@@ -5807,72 +5777,66 @@
         <v>1.480419433606314e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.01703636910864325</v>
+        <v>5.480561111191644e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.339281202905991</v>
+        <v>5.321425504154597e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.480561111191644e-07</v>
+        <v>0.01236030027231841</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.321425504154597e-06</v>
+        <v>0.2400281892099864</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.01236030027231841</v>
+        <v>0.05760418463056672</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2400281892099864</v>
+        <v>1.912964733910046</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05760418463056672</v>
+        <v>2.905523302907271</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.935365049031921</v>
+        <v>4.671010743282954</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.905523302907271</v>
+        <v>3.23303064158107e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.671010743282954</v>
+        <v>1390452322.0359</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.23303064158107e-16</v>
+        <v>8.641552501463845e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1390452322.0359</v>
+        <v>625.0604555446771</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.641552501463845e-08</v>
+        <v>0.0001521241792373111</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>625.0604555446771</v>
+        <v>8.589958944647641</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001521241792373111</v>
+        <v>1.533277201406364</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.589958944647641</v>
+        <v>0.01122484685234465</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.533277201406364</v>
+        <v>3.628058282462407</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01122484685234465</v>
+        <v>0.9580596017870607</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.628058282462407</v>
+        <v>1.09099929854796</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9580596017870607</v>
+        <v>48</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.09099929854796</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.479463639477166</v>
       </c>
     </row>
@@ -5887,72 +5851,66 @@
         <v>1.476931974461504e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.003018573605537619</v>
+        <v>4.421886783408033e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.369041128238394</v>
+        <v>5.321524203288908e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.421886783408033e-07</v>
+        <v>-0.009558599351915983</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.321524203288908e-06</v>
+        <v>0.1671860931406164</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.009558599351915983</v>
+        <v>0.02796360429132542</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1671860931406164</v>
+        <v>1.91174229104131</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02796360429132542</v>
+        <v>2.504120577666226</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.933666716354727</v>
+        <v>5.377507939321589</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.504120577666226</v>
+        <v>3.472694357766469e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.377507939321589</v>
+        <v>1269966039.019377</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.472694357766469e-16</v>
+        <v>9.397925753281448e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1269966039.019377</v>
+        <v>560.0809175938051</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>9.397925753281448e-08</v>
+        <v>0.0001559685151579831</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>560.0809175938051</v>
+        <v>9.572113573312693</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001559685151579831</v>
+        <v>1.392982793108273</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.572113573312693</v>
+        <v>0.01429067107869238</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.392982793108273</v>
+        <v>3.712372822514763</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01429067107869238</v>
+        <v>0.9566040524452826</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.712372822514763</v>
+        <v>1.134816148794425</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9566040524452826</v>
+        <v>53</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.134816148794425</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>1.891160477571856</v>
       </c>
     </row>
@@ -5967,72 +5925,66 @@
         <v>1.500076436117582e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.00187065034891346</v>
+        <v>4.421886783408033e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.398705486300449</v>
+        <v>5.318899446854713e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.421886783408033e-07</v>
+        <v>-0.02462163730193492</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.318899446854713e-06</v>
+        <v>0.1136259144334648</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02462163730193492</v>
+        <v>0.01348256325289582</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1136259144334648</v>
+        <v>1.902615049847208</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01348256325289582</v>
+        <v>2.174517938070739</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.916951370068202</v>
+        <v>5.300147088049033</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.174517938070739</v>
+        <v>8.129410471215296e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.300147088049033</v>
+        <v>539743810.6084627</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>8.129410471215296e-16</v>
+        <v>2.209839787861943e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>539743810.6084627</v>
+        <v>236.8287344744061</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.209839787861943e-07</v>
+        <v>0.0001730408115790748</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>236.8287344744061</v>
+        <v>10.62133481762846</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001730408115790748</v>
+        <v>1.349560020732667</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.62133481762846</v>
+        <v>0.01952121038891511</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.349560020732667</v>
+        <v>3.603665754948233</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01952121038891511</v>
+        <v>0.9569605514484384</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.603665754948233</v>
+        <v>1.254489387174864</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9569605514484384</v>
+        <v>53</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.254489387174864</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.873519251258939</v>
       </c>
     </row>
@@ -6047,72 +5999,66 @@
         <v>1.524010893863333e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.04046622910647843</v>
+        <v>4.48253888173984e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.426040195196824</v>
+        <v>5.314327322055567e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.48253888173984e-07</v>
+        <v>-0.03512972747509783</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5.314327322055567e-06</v>
+        <v>0.07782587922120691</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03512972747509783</v>
+        <v>0.007275978373346834</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.07782587922120691</v>
+        <v>1.898158636035872</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.007275978373346834</v>
+        <v>2.261714072828037</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.911763039608284</v>
+        <v>4.741873504065728</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.261714072828037</v>
+        <v>1.0156287076789e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.741873504065728</v>
+        <v>434024648.1729193</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.0156287076789e-15</v>
+        <v>2.75235586840657e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>434024648.1729193</v>
+        <v>191.3214904648578</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.75235586840657e-07</v>
+        <v>0.0001745080218059303</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>191.3214904648578</v>
+        <v>11.13116384305759</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001745080218059303</v>
+        <v>1.227419449374752</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.13116384305759</v>
+        <v>0.02162203400770722</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.227419449374752</v>
+        <v>3.298148829177212</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02162203400770722</v>
+        <v>0.958899098782764</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.298148829177212</v>
+        <v>1.227931289699309</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.958899098782764</v>
+        <v>53</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.227931289699309</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>1.278783564807389</v>
       </c>
     </row>
@@ -6127,72 +6073,66 @@
         <v>1.541173281510204e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.0914214463382276</v>
+        <v>4.612235669522455e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.42130086735781</v>
+        <v>5.308336620039915e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.612235669522455e-07</v>
+        <v>-0.04249431726702119</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>5.308336620039915e-06</v>
+        <v>0.05456877254997558</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04249431726702119</v>
+        <v>0.004777519567086577</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.05456877254997558</v>
+        <v>1.896533185002596</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.004777519567086577</v>
+        <v>2.427685665516102</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.90916297846058</v>
+        <v>4.758309094528872</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.427685665516102</v>
+        <v>1.008624694862032e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.758309094528872</v>
+        <v>435465736.7564153</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.008624694862032e-15</v>
+        <v>2.741769955898264e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>435465736.7564153</v>
+        <v>191.2659122934111</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.741769955898264e-07</v>
+        <v>0.0001513154772106458</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>191.2659122934111</v>
+        <v>10.97418196769193</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001513154772106458</v>
+        <v>1.081138393394511</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.97418196769193</v>
+        <v>0.01822332691162029</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.081138393394511</v>
+        <v>3.155242615954026</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01822332691162029</v>
+        <v>0.9590278773794767</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.155242615954026</v>
+        <v>1.311613363899425</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9590278773794767</v>
+        <v>50</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.311613363899425</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.9193101787807905</v>
       </c>
     </row>
@@ -6207,72 +6147,66 @@
         <v>1.550695719735318e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1389397232557099</v>
+        <v>4.747375890145255e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.39420780527651</v>
+        <v>5.30134769567925e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.747375890145255e-07</v>
+        <v>-0.04753438444227669</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>5.30134769567925e-06</v>
+        <v>0.0410120301014048</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04753438444227669</v>
+        <v>0.003939365252507327</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.0410120301014048</v>
+        <v>1.891583183423859</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.003939365252507327</v>
+        <v>2.462270309105758</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.907422422648615</v>
+        <v>4.814305510147447</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.462270309105758</v>
+        <v>9.852980054646129e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.814305510147447</v>
+        <v>445382041.0059865</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>9.852980054646129e-16</v>
+        <v>2.677610449120718e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>445382041.0059865</v>
+        <v>195.4487989162974</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.677610449120718e-07</v>
+        <v>0.0001376842063613277</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>195.4487989162974</v>
+        <v>9.858220104979596</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001376842063613277</v>
+        <v>1.171351269331028</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.858220104979596</v>
+        <v>0.01338077125404842</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.171351269331028</v>
+        <v>3.16077553990214</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01338077125404842</v>
+        <v>0.9600590057415487</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.16077553990214</v>
+        <v>1.307653976599096</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9600590057415487</v>
+        <v>85</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.307653976599096</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.7031323902081154</v>
       </c>
     </row>
@@ -6287,72 +6221,66 @@
         <v>1.554029049206939e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1772493067150445</v>
+        <v>4.877453239340493e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.358128923393059</v>
+        <v>5.293679975595115e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.877453239340493e-07</v>
+        <v>-0.0509941628278703</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>5.293679975595115e-06</v>
+        <v>0.03391104914939432</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.0509941628278703</v>
+        <v>0.003749714888120201</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.03391104914939432</v>
+        <v>1.89192303376554</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.003749714888120201</v>
+        <v>2.390703353072733</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.905203886502779</v>
+        <v>4.855528452597744</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.390703353072733</v>
+        <v>9.686388645414725e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.855528452597744</v>
+        <v>455267255.4281243</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>9.686388645414725e-16</v>
+        <v>2.623928500272092e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>455267255.4281243</v>
+        <v>200.7681054521198</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.623928500272092e-07</v>
+        <v>0.0001274040039051055</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>200.7681054521198</v>
+        <v>8.298053089500256</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001274040039051055</v>
+        <v>1.2857241711148</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.298053089500256</v>
+        <v>0.008772744778340219</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.2857241711148</v>
+        <v>3.284535354020408</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.008772744778340219</v>
+        <v>0.9596662874213755</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.284535354020408</v>
+        <v>1.282480354374812</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9596662874213755</v>
+        <v>110</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.282480354374812</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>110</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.5831583583992258</v>
       </c>
     </row>
@@ -6367,72 +6295,66 @@
         <v>1.552990669352718e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.2057019112267985</v>
+        <v>5.006032299988548e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.320159253735732</v>
+        <v>5.285555037228462e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.006032299988548e-07</v>
+        <v>-0.05344338416998425</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.285555037228462e-06</v>
+        <v>0.03073646695815571</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05344338416998425</v>
+        <v>0.003800768200407085</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.03073646695815571</v>
+        <v>1.894947415673417</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.003800768200407085</v>
+        <v>2.257783739041096</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.909388220419085</v>
+        <v>4.858769045605867</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.257783739041096</v>
+        <v>9.673472132922378e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.858769045605867</v>
+        <v>472370671.6235471</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>9.673472132922378e-16</v>
+        <v>2.539743692263431e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>472370671.6235471</v>
+        <v>215.8481028221487</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.539743692263431e-07</v>
+        <v>0.0001255181231764818</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>215.8481028221487</v>
+        <v>7.233525430709422</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001255181231764818</v>
+        <v>1.470669506926315</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.233525430709422</v>
+        <v>0.006567596489763875</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.470669506926315</v>
+        <v>3.356169196047853</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.006567596489763875</v>
+        <v>0.9588712797410027</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.356169196047853</v>
+        <v>1.305532384756757</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9588712797410027</v>
+        <v>134</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.305532384756757</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.5263337813994959</v>
       </c>
     </row>
@@ -6447,72 +6369,66 @@
         <v>1.549297006360531e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.2252691651720293</v>
+        <v>5.132937756021276e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.282366275984632</v>
+        <v>5.277119170463915e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.132937756021276e-07</v>
+        <v>-0.05521600726975</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5.277119170463915e-06</v>
+        <v>0.02958887831496586</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05521600726975</v>
+        <v>0.003924282763993823</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.02958887831496586</v>
+        <v>1.896804118285831</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003924282763993823</v>
+        <v>2.235080229317411</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.911979993653864</v>
+        <v>4.871996823512987</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.235080229317411</v>
+        <v>9.621015270633976e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.871996823512987</v>
+        <v>478069451.3852232</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>9.621015270633976e-16</v>
+        <v>2.507474296353224e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>478069451.3852232</v>
+        <v>219.8886891855387</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.507474296353224e-07</v>
+        <v>0.0001316764749047165</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>219.8886891855387</v>
+        <v>8.189117172077855</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001316764749047165</v>
+        <v>1.338454152036188</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.189117172077855</v>
+        <v>0.008830440364169056</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.338454152036188</v>
+        <v>3.271299666798064</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.008830440364169056</v>
+        <v>0.9588752139938085</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.271299666798064</v>
+        <v>1.302871330138622</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9588752139938085</v>
+        <v>166</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.302871330138622</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>166</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.5214884144530826</v>
       </c>
     </row>
@@ -6527,72 +6443,66 @@
         <v>1.544146749193347e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2374611927773707</v>
+        <v>5.233423851852254e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.24489897445559</v>
+        <v>5.268474001764469e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.233423851852254e-07</v>
+        <v>-0.05648560354672597</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>5.268474001764469e-06</v>
+        <v>0.02927475575850693</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05648560354672597</v>
+        <v>0.004047665896209963</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.02927475575850693</v>
+        <v>1.901864964209719</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.004047665896209963</v>
+        <v>2.134736285331804</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.917977551196129</v>
+        <v>4.922567011316416</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.134736285331804</v>
+        <v>9.424354698808223e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.922567011316416</v>
+        <v>475244710.7608674</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>9.424354698808223e-16</v>
+        <v>2.525269422414542e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>475244710.7608674</v>
+        <v>212.8561522239176</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.525269422414542e-07</v>
+        <v>0.0001466216963217278</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>212.8561522239176</v>
+        <v>10.5186899144951</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001466216963217278</v>
+        <v>1.101336072460052</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.5186899144951</v>
+        <v>0.01622264052263596</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.101336072460052</v>
+        <v>2.989652269751701</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01622264052263596</v>
+        <v>0.9602995361399712</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.989652269751701</v>
+        <v>1.250923856348535</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9602995361399712</v>
+        <v>162</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.250923856348535</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>162</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.5558251789249454</v>
       </c>
     </row>
@@ -6607,72 +6517,66 @@
         <v>1.538095814155645e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2440642731220488</v>
+        <v>5.292423635206843e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.208033047890099</v>
+        <v>5.259697683701979e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.292423635206843e-07</v>
+        <v>-0.0573469236010448</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>5.259697683701979e-06</v>
+        <v>0.02920071797094721</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.0573469236010448</v>
+        <v>0.004141462253544771</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.02920071797094721</v>
+        <v>1.900391732677355</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.004141462253544771</v>
+        <v>2.104999954908301</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.919357266024496</v>
+        <v>4.670102699061525</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.104999954908301</v>
+        <v>8.92227904012107e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.670102699061525</v>
+        <v>495090689.9656432</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>8.92227904012107e-16</v>
+        <v>2.418561901797133e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>495090689.9656432</v>
+        <v>218.6982564756276</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.418561901797133e-07</v>
+        <v>0.0001448686409226408</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>218.6982564756276</v>
+        <v>10.42198658993996</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001448686409226408</v>
+        <v>1.110945436611269</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.42198658993996</v>
+        <v>0.01573531371514742</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.110945436611269</v>
+        <v>2.98826726773727</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01573531371514742</v>
+        <v>0.9600412717355108</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.98826726773727</v>
+        <v>1.284434270476065</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9600412717355108</v>
+        <v>162</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.284434270476065</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>162</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.5540587979629311</v>
       </c>
     </row>
@@ -6687,72 +6591,66 @@
         <v>1.531039943199452e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2467034042734152</v>
+        <v>5.324333474755676e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.17325861165739</v>
+        <v>5.250847924014207e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.324333474755676e-07</v>
+        <v>-0.05795789088891598</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>5.250847924014207e-06</v>
+        <v>0.02918552280354549</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05795789088891598</v>
+        <v>0.004211101911908347</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.02918552280354549</v>
+        <v>1.898757747089745</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.004211101911908347</v>
+        <v>2.217927382891013</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.918992023563485</v>
+        <v>4.424069979342364</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.217927382891013</v>
+        <v>8.898024038469626e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.424069979342364</v>
+        <v>472938514.783299</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>8.898024038469626e-16</v>
+        <v>2.519747598126011e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>472938514.783299</v>
+        <v>199.0228500039485</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.519747598126011e-07</v>
+        <v>0.0001302063465605721</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>199.0228500039485</v>
+        <v>8.412881437740038</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001302063465605721</v>
+        <v>1.257373808355216</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.412881437740038</v>
+        <v>0.009215559133742831</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.257373808355216</v>
+        <v>3.242057792755927</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.009215559133742831</v>
+        <v>0.9610329868091745</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.242057792755927</v>
+        <v>1.327516031232048</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9610329868091745</v>
+        <v>168</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.327516031232048</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>168</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.5299273952845014</v>
       </c>
     </row>
@@ -6767,72 +6665,66 @@
         <v>1.522635194725125e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.2456731946695063</v>
+        <v>5.364522722925478e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.142780433409911</v>
+        <v>5.241945046237467e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.364522722925478e-07</v>
+        <v>-0.05871814046355769</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>5.241945046237467e-06</v>
+        <v>0.02913947694229822</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05871814046355769</v>
+        <v>0.004297048729460149</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.02913947694229822</v>
+        <v>1.89620826271964</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.004297048729460149</v>
+        <v>2.210592105534978</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.914493991361099</v>
+        <v>4.431123021217628</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.210592105534978</v>
+        <v>8.869720518291069e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.431123021217628</v>
+        <v>473205701.4386465</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>8.869720518291069e-16</v>
+        <v>2.522560869338927e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>473205701.4386465</v>
+        <v>198.6140067642324</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.522560869338927e-07</v>
+        <v>0.0001255931666801884</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>198.6140067642324</v>
+        <v>7.377491433196826</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001255931666801884</v>
+        <v>1.416051706934125</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.377491433196826</v>
+        <v>0.006835706989076704</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.416051706934125</v>
+        <v>3.327284870365315</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.006835706989076704</v>
+        <v>0.9610839875574178</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.327284870365315</v>
+        <v>1.328897203617709</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9610839875574178</v>
+        <v>171</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.328897203617709</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>171</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.5375434695461477</v>
       </c>
     </row>
@@ -6847,72 +6739,66 @@
         <v>1.512998875887507e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.2386835006230095</v>
+        <v>5.428034792119358e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.118342126563159</v>
+        <v>5.232950702114013e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5.428034792119358e-07</v>
+        <v>-0.05979268979928216</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>5.232950702114013e-06</v>
+        <v>0.02908802567008186</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05979268979928216</v>
+        <v>0.004421313038691585</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.02908802567008186</v>
+        <v>1.902990821278865</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.004421313038691585</v>
+        <v>2.147500898016281</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.915857062858199</v>
+        <v>4.495692328738801</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.147500898016281</v>
+        <v>8.616767740876887e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.495692328738801</v>
+        <v>488954088.5472566</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>8.616767740876887e-16</v>
+        <v>2.448295534712953e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>488954088.5472566</v>
+        <v>206.0063232187388</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.448295534712953e-07</v>
+        <v>0.0001260962149182339</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>206.0063232187388</v>
+        <v>7.804432013556901</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001260962149182339</v>
+        <v>1.341236318919913</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.804432013556901</v>
+        <v>0.007680414410591305</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.341236318919913</v>
+        <v>3.31148980196993</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.007680414410591305</v>
+        <v>0.961269200984491</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.31148980196993</v>
+        <v>1.328329149592892</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.961269200984491</v>
+        <v>190</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.328329149592892</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>190</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.6139506545641664</v>
       </c>
     </row>
@@ -6927,72 +6813,66 @@
         <v>1.50282762539517e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.2254689997505647</v>
+        <v>5.449882118437901e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.099656978722973</v>
+        <v>5.223877405423802e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.449882118437901e-07</v>
+        <v>-0.0604415918785611</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>5.223877405423802e-06</v>
+        <v>0.02927845033647725</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.0604415918785611</v>
+        <v>0.004510245775712794</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.02927845033647725</v>
+        <v>1.904986166803987</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.004510245775712794</v>
+        <v>2.164980381107431</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.918438434330875</v>
+        <v>4.625143828783286</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.164980381107431</v>
+        <v>8.141174533312895e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.625143828783286</v>
+        <v>536097588.0051768</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>8.141174533312895e-16</v>
+        <v>2.23991816280936e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>536097588.0051768</v>
+        <v>233.9778639867718</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.23991816280936e-07</v>
+        <v>0.0001297004989295261</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>233.9778639867718</v>
+        <v>9.399716744921948</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001297004989295261</v>
+        <v>1.18608755588558</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.399716744921948</v>
+        <v>0.01145964541531023</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.18608755588558</v>
+        <v>3.254977453871192</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01145964541531023</v>
+        <v>0.9621518240601562</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.254977453871192</v>
+        <v>1.351290818528717</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9621518240601562</v>
+        <v>210</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.351290818528717</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.8506400667483821</v>
       </c>
     </row>
@@ -7007,72 +6887,66 @@
         <v>1.493405915028609e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.209465299881065</v>
+        <v>5.427187714292495e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.082228992467325</v>
+        <v>5.214808918976499e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.427187714292495e-07</v>
+        <v>-0.06057028498096265</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5.214808918976499e-06</v>
+        <v>0.02934235734077116</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.06057028498096265</v>
+        <v>0.004529449884698783</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.02934235734077116</v>
+        <v>1.900804814059489</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.004529449884698783</v>
+        <v>2.303255262006477</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.92175070234014</v>
+        <v>4.66208073925712</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.303255262006477</v>
+        <v>8.012683151895054e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.66208073925712</v>
+        <v>564045170.8848976</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>8.012683151895054e-16</v>
+        <v>2.12149127279268e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>564045170.8848976</v>
+        <v>254.9210744541246</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.12149127279268e-07</v>
+        <v>0.0001161538281932818</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>254.9210744541246</v>
+        <v>9.850742687041535</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001161538281932818</v>
+        <v>1.068997357648993</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.850742687041535</v>
+        <v>0.01127123429902885</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.068997357648993</v>
+        <v>3.501495500947129</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01127123429902885</v>
+        <v>0.962758025339577</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.501495500947129</v>
+        <v>1.301648430218474</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.962758025339577</v>
+        <v>212</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.301648430218474</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>212</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>1.298797088494426</v>
       </c>
     </row>
@@ -7087,72 +6961,66 @@
         <v>1.48522326002798e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.1935078348818134</v>
+        <v>5.377555685468275e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.063734380043055</v>
+        <v>5.205801570292502e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5.377555685468275e-07</v>
+        <v>-0.06034606266083464</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>5.205801570292502e-06</v>
+        <v>0.02928742610985846</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.06034606266083464</v>
+        <v>0.004499219721575489</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.02928742610985846</v>
+        <v>1.904473737807719</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.004499219721575489</v>
+        <v>2.54162532221069</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.928923715968974</v>
+        <v>4.78594359103579</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.54162532221069</v>
+        <v>8.603441090059377e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.78594359103579</v>
+        <v>546124602.3347635</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>8.603441090059377e-16</v>
+        <v>2.189040990123362e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>546124602.3347635</v>
+        <v>256.5994211239675</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.189040990123362e-07</v>
+        <v>9.606788286110925e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>256.5994211239675</v>
+        <v>7.568904677612018</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>9.606788286110925e-05</v>
+        <v>1.734243574913127</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>7.568904677612018</v>
+        <v>0.005503567424737852</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.734243574913127</v>
+        <v>4.071268489030663</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.005503567424737852</v>
+        <v>0.9642167581457525</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>4.071268489030663</v>
+        <v>1.238077751214412</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9642167581457525</v>
+        <v>211</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.238077751214412</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>1.762585892244171</v>
       </c>
     </row>
@@ -7167,72 +7035,66 @@
         <v>1.477738328599998e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.1799058510920847</v>
+        <v>5.301383199574318e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.045464926785635</v>
+        <v>5.196898109158074e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.301383199574318e-07</v>
+        <v>-0.05979113006210226</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>5.196898109158074e-06</v>
+        <v>0.02938477709758428</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05979113006210226</v>
+        <v>0.004438374892967156</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.02938477709758428</v>
+        <v>1.907381251887679</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.004438374892967156</v>
+        <v>2.068644555876153</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.938350953028071</v>
+        <v>6.528430512924029</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.068644555876153</v>
+        <v>5.259125496361238e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>6.528430512924029</v>
+        <v>910052850.433792</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>5.259125496361238e-16</v>
+        <v>1.317716033966682e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>910052850.433792</v>
+        <v>435.558770188257</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.317716033966682e-07</v>
+        <v>9.921641576617514e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>435.558770188257</v>
+        <v>6.462632582792621</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>9.921641576617514e-05</v>
+        <v>2.181294298910733</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>6.462632582792621</v>
+        <v>0.004143835108747586</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>2.181294298910733</v>
+        <v>4.191897000826391</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.004143835108747586</v>
+        <v>0.9629625489286169</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>4.191897000826391</v>
+        <v>1.21614922062468</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9629625489286169</v>
+        <v>211</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.21614922062468</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>1.958005981363522</v>
       </c>
     </row>
@@ -7247,72 +7109,66 @@
         <v>1.469955039765404e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.1710319606142883</v>
+        <v>5.192512911771695e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.029605726351285</v>
+        <v>5.188149076935962e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5.192512911771695e-07</v>
+        <v>-0.05886810457342782</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5.188149076935962e-06</v>
+        <v>0.03005016772088225</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05886810457342782</v>
+        <v>0.004368488798635586</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.03005016772088225</v>
+        <v>1.907321817163318</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.004368488798635586</v>
+        <v>2.443708603260466</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.944376342299736</v>
+        <v>5.338731029905476</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.443708603260466</v>
+        <v>3.10168211996628e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.338731029905476</v>
+        <v>1537840508.983417</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.10168211996628e-16</v>
+        <v>7.781893460724525e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>1537840508.983417</v>
+        <v>733.5333771703883</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>7.781893460724525e-08</v>
+        <v>0.0001175988016881068</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>733.5333771703883</v>
+        <v>8.588022031429524</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001175988016881068</v>
+        <v>1.521537511100201</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.588022031429524</v>
+        <v>0.008673396415246644</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.521537511100201</v>
+        <v>4.018364402755918</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.008673396415246644</v>
+        <v>0.961677887941132</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>4.018364402755918</v>
+        <v>1.115162457735588</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.961677887941132</v>
+        <v>211</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.115162457735588</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>2.001765294946955</v>
       </c>
     </row>
@@ -7327,72 +7183,66 @@
         <v>1.46059607329564e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1686993518669933</v>
+        <v>5.079979500193009e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.018036633178345</v>
+        <v>5.179606369303759e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.079979500193009e-07</v>
+        <v>-0.05768109479430172</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>5.179606369303759e-06</v>
+        <v>0.03168487729575965</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05768109479430172</v>
+        <v>0.004331085848547606</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.03168487729575965</v>
+        <v>1.911537308048772</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.004331085848547606</v>
+        <v>2.812531388869972</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.946061043872286</v>
+        <v>5.28241822986025</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.812531388869972</v>
+        <v>3.168165081138291e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5.28241822986025</v>
+        <v>1507900167.056175</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.168165081138291e-16</v>
+        <v>7.955804071746871e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1507900167.056175</v>
+        <v>720.3656266313885</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>7.955804071746871e-08</v>
+        <v>0.0001193589556455316</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>720.3656266313885</v>
+        <v>10.45796207949183</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001193589556455316</v>
+        <v>1.189498615506507</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>10.45796207949183</v>
+        <v>0.01305416614140938</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.189498615506507</v>
+        <v>3.934175676697765</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01305416614140938</v>
+        <v>0.96032913944786</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.934175676697765</v>
+        <v>1.060875566947447</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.96032913944786</v>
+        <v>209</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.060875566947447</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>209</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>2.163154917213376</v>
       </c>
     </row>
@@ -7407,72 +7257,66 @@
         <v>1.448559355564536e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.1731134848369976</v>
+        <v>4.981794347519733e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.011116658275221</v>
+        <v>5.17130193938266e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>4.981794347519733e-07</v>
+        <v>-0.0564881334151702</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>5.17130193938266e-06</v>
+        <v>0.03396176182761706</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.0564881334151702</v>
+        <v>0.00434437405748202</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.03396176182761706</v>
+        <v>1.91106387736637</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.00434437405748202</v>
+        <v>2.989786723954509</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.945820545077986</v>
+        <v>5.36386982850548</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.989786723954509</v>
+        <v>3.072676999415995e-16</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>5.36386982850548</v>
+        <v>1547184849.096097</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.072676999415995e-16</v>
+        <v>7.751380086845651e-08</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>1547184849.096097</v>
+        <v>735.5315689051253</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>7.751380086845651e-08</v>
+        <v>0.000108246471497026</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>735.5315689051253</v>
+        <v>10.34215451596272</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.000108246471497026</v>
+        <v>1.107317431151015</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>10.34215451596272</v>
+        <v>0.01157805991422642</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.107317431151015</v>
+        <v>3.870058426945828</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01157805991422642</v>
+        <v>0.9603994144589746</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.870058426945828</v>
+        <v>1.093341344758468</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9603994144589746</v>
+        <v>174</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.093341344758468</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>174</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>2.096852716406404</v>
       </c>
     </row>
@@ -7487,72 +7331,66 @@
         <v>1.433200393396736e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.1831181882635758</v>
+        <v>4.89406180116732e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.007923797354195</v>
+        <v>5.16324567601251e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>4.89406180116732e-07</v>
+        <v>-0.05526447177920852</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>5.16324567601251e-06</v>
+        <v>0.03689567157563144</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05526447177920852</v>
+        <v>0.004415382170331906</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.03689567157563144</v>
+        <v>1.913356021561956</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.004415382170331906</v>
+        <v>2.808372049523986</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.945705782516629</v>
+        <v>5.155220367707639</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.808372049523986</v>
+        <v>3.326433914547782e-16</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>5.155220367707639</v>
+        <v>1411283907.456422</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.326433914547782e-16</v>
+        <v>8.485134179945544e-08</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>1411283907.456422</v>
+        <v>662.5332498790605</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>8.485134179945544e-08</v>
+        <v>0.0001028198176419493</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>662.5332498790605</v>
+        <v>8.320448030161945</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001028198176419493</v>
+        <v>1.246101789320716</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.320448030161945</v>
+        <v>0.007118201109932894</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.246101789320716</v>
+        <v>3.954423619507961</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.007118201109932894</v>
+        <v>0.9590817098814662</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.954423619507961</v>
+        <v>1.121597750923537</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9590817098814662</v>
+        <v>149</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.121597750923537</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>149</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>1.810947580636169</v>
       </c>
     </row>
@@ -7567,72 +7405,66 @@
         <v>1.413769140039935e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.19805212652142</v>
+        <v>4.814077291675022e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.007295428047174</v>
+        <v>5.155476065645006e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>4.814077291675022e-07</v>
+        <v>-0.05381125162979457</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>5.155476065645006e-06</v>
+        <v>0.0410654029408721</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.05381125162979457</v>
+        <v>0.004581683042166591</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.0410654029408721</v>
+        <v>1.913760186550571</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.004581683042166591</v>
+        <v>2.935678712145346</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.944377718781506</v>
+        <v>5.041475681686817</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.935678712145346</v>
+        <v>3.478227750649415e-16</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>5.041475681686817</v>
+        <v>1329007709.500766</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.478227750649415e-16</v>
+        <v>8.996505537195134e-08</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>1329007709.500766</v>
+        <v>614.3459736073399</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>8.996505537195134e-08</v>
+        <v>9.940513340673312e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>614.3459736073399</v>
+        <v>7.402154717904296</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>9.940513340673312e-05</v>
+        <v>1.426088137081674</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>7.402154717904296</v>
+        <v>0.005446595579178588</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.426088137081674</v>
+        <v>4.041362509648168</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.005446595579178588</v>
+        <v>0.9602943792077221</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>4.041362509648168</v>
+        <v>1.120602122474149</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9602943792077221</v>
+        <v>96</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.120602122474149</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>1.800760252353228</v>
       </c>
     </row>
@@ -7647,72 +7479,66 @@
         <v>1.389612440954826e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.2169707404023286</v>
+        <v>4.735859511164242e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.007369878401188</v>
+        <v>5.148048566087079e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>4.735859511164242e-07</v>
+        <v>-0.05203984376415083</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>5.148048566087079e-06</v>
+        <v>0.04659628039371442</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05203984376415083</v>
+        <v>0.004878496378914798</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.04659628039371442</v>
+        <v>1.915004260053489</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.004878496378914798</v>
+        <v>2.758226274113913</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.943069869887377</v>
+        <v>5.654672886323629</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.758226274113913</v>
+        <v>4.002192368401864e-16</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>5.654672886323629</v>
+        <v>1157671647.031245</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>4.002192368401864e-16</v>
+        <v>1.031059342982942e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>1157671647.031245</v>
+        <v>536.3752789477672</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.031059342982942e-07</v>
+        <v>9.697846328581681e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>536.3752789477672</v>
+        <v>7.70998139896798</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>9.697846328581681e-05</v>
+        <v>1.50002621094604</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.70998139896798</v>
+        <v>0.005764769653311673</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.50002621094604</v>
+        <v>4.164066181068919</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.005764769653311673</v>
+        <v>0.9604254574121767</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>4.164066181068919</v>
+        <v>1.141079182131517</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9604254574121767</v>
+        <v>58</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.141079182131517</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>1.984852439981786</v>
       </c>
     </row>
@@ -7727,72 +7553,66 @@
         <v>1.360101021925326e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.2381076490617878</v>
+        <v>4.666861067861198e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.005709113451222</v>
+        <v>5.141040372422275e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>4.666861067861198e-07</v>
+        <v>-0.04974591466445896</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>5.141040372422275e-06</v>
+        <v>0.05457004750171702</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.04974591466445896</v>
+        <v>0.005450753617487312</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.05457004750171702</v>
+        <v>1.897360556284148</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.005450753617487312</v>
+        <v>2.638144813265306</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.923005211191064</v>
+        <v>5.550154390407437</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.638144813265306</v>
+        <v>5.404682678466705e-16</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>5.550154390407437</v>
+        <v>853343180.9242371</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>5.404682678466705e-16</v>
+        <v>1.395715208059237e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>853343180.9242371</v>
+        <v>393.5660657021516</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.395715208059237e-07</v>
+        <v>0.0001007422849367587</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>393.5660657021516</v>
+        <v>10.27642536025548</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001007422849367587</v>
+        <v>1.236782299767323</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>10.27642536025548</v>
+        <v>0.01063888075850647</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.236782299767323</v>
+        <v>4.167950139298259</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01063888075850647</v>
+        <v>0.9592386491252615</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>4.167950139298259</v>
+        <v>1.187989955417734</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9592386491252615</v>
+        <v>58</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.187989955417734</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>2.303040716573511</v>
       </c>
     </row>
@@ -7807,72 +7627,66 @@
         <v>1.324872161327288e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.2573388100087872</v>
+        <v>4.600952570953184e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.002069089246847</v>
+        <v>5.134508603419225e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>4.600952570953184e-07</v>
+        <v>-0.04767460620880046</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>5.134508603419225e-06</v>
+        <v>0.06191790115164762</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.04767460620880046</v>
+        <v>0.006105920475054333</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.06191790115164762</v>
+        <v>1.87935280106312</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.006105920475054333</v>
+        <v>2.137863209016048</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.884770491579412</v>
+        <v>5.694008610203108</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.137863209016048</v>
+        <v>1.362818626754518e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>5.694008610203108</v>
+        <v>351994179.673047</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.362818626754518e-15</v>
+        <v>3.376304313839315e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>351994179.673047</v>
+        <v>168.8530950123692</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>3.376304313839315e-07</v>
+        <v>0.0001066623725994496</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>168.8530950123692</v>
+        <v>9.716381529906901</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001066623725994496</v>
+        <v>1.370135275586881</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.716381529906901</v>
+        <v>0.0100697887424378</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.370135275586881</v>
+        <v>4.265366071313786</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.0100697887424378</v>
+        <v>0.9600710027321213</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>4.265366071313786</v>
+        <v>1.44531482136383</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9600710027321213</v>
+        <v>59</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.44531482136383</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>2.414518667321604</v>
       </c>
     </row>
@@ -7887,72 +7701,66 @@
         <v>1.285843998917406e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.2713123337203948</v>
+        <v>4.517099847353559e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.000261735306507</v>
+        <v>5.128358381162221e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>4.517099847353559e-07</v>
+        <v>-0.04663831405858215</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>5.128358381162221e-06</v>
+        <v>0.06602197515973292</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.04663831405858215</v>
+        <v>0.00653371830060255</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.06602197515973292</v>
+        <v>1.874624425362026</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.00653371830060255</v>
+        <v>2.166469871946254</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.87875869492188</v>
+        <v>4.779228405237514</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.166469871946254</v>
+        <v>1.934455425034236e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.779228405237514</v>
+        <v>251677355.9206392</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.934455425034236e-15</v>
+        <v>4.697810309514767e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>251677355.9206392</v>
+        <v>122.5312918294441</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>4.697810309514767e-07</v>
+        <v>0.0001287515102637378</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>122.5312918294441</v>
+        <v>8.588319060211997</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001287515102637378</v>
+        <v>1.879203196957897</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.588319060211997</v>
+        <v>0.009496611521931849</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.879203196957897</v>
+        <v>3.831080804044735</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.009496611521931849</v>
+        <v>0.9588713471428091</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.831080804044735</v>
+        <v>1.397432308653021</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9588713471428091</v>
+        <v>53</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.397432308653021</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>1.165266956370605</v>
       </c>
     </row>
@@ -7967,72 +7775,66 @@
         <v>1.244950667289126e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.2800052581255717</v>
+        <v>4.414062447606075e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.002754571508068</v>
+        <v>5.122508524358202e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>4.414062447606075e-07</v>
+        <v>-0.04573353380797592</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>5.122508524358202e-06</v>
+        <v>0.06951266642332778</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.04573353380797592</v>
+        <v>0.006922982655105381</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.06951266642332778</v>
+        <v>1.866992036719489</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.006922982655105381</v>
+        <v>2.298545498973732</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.872311284893876</v>
+        <v>4.841732937357335</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.298545498973732</v>
+        <v>1.884831964871966e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.841732937357335</v>
+        <v>264168249.4980336</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.884831964871966e-15</v>
+        <v>4.479110747404335e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>264168249.4980336</v>
+        <v>131.532742412218</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>4.479110747404335e-07</v>
+        <v>9.545255016319581e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>131.532742412218</v>
+        <v>7.893931651407722</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>9.545255016319581e-05</v>
+        <v>1.373153191805634</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>7.893931651407722</v>
+        <v>0.005948045189006422</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.373153191805634</v>
+        <v>3.596850900558984</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.005948045189006422</v>
+        <v>0.9596178856344257</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.596850900558984</v>
+        <v>1.489478839470046</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9596178856344257</v>
+        <v>57</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.489478839470046</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.6472039596982611</v>
       </c>
     </row>
@@ -8047,72 +7849,66 @@
         <v>1.202975574871834e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.2834948105067171</v>
+        <v>4.294551687090647e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.008337694570455</v>
+        <v>5.116997937494459e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>4.294551687090647e-07</v>
+        <v>-0.04414830953647116</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>5.116997937494459e-06</v>
+        <v>0.07377337517528224</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.04414830953647116</v>
+        <v>0.007390364085802652</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.07377337517528224</v>
+        <v>1.865806290188778</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.007390364085802652</v>
+        <v>2.161880416659406</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.870250028288734</v>
+        <v>4.852845076563643</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>2.161880416659406</v>
+        <v>1.876209997648768e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.852845076563643</v>
+        <v>267204101.0514681</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.876209997648768e-15</v>
+        <v>4.439349542747343e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>267204101.0514681</v>
+        <v>133.9577007354912</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>4.439349542747343e-07</v>
+        <v>9.960705127085164e-05</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>133.9577007354912</v>
+        <v>7.367699482167694</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>9.960705127085164e-05</v>
+        <v>1.395226968682239</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>7.367699482167694</v>
+        <v>0.005406969131794632</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.395226968682239</v>
+        <v>3.310868588926058</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.005406969131794632</v>
+        <v>0.9591135644354797</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.310868588926058</v>
+        <v>1.483850021686207</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9591135644354797</v>
+        <v>38</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.483850021686207</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.4485009729141165</v>
       </c>
     </row>
@@ -8127,72 +7923,66 @@
         <v>1.160679407222815e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.2818221613479451</v>
+        <v>4.154923148805081e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.01272277207159</v>
+        <v>5.111911810021655e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>4.154923148805081e-07</v>
+        <v>-0.04179721150441888</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>5.111911810021655e-06</v>
+        <v>0.07862440590782296</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.04179721150441888</v>
+        <v>0.00792703985524865</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.07862440590782296</v>
+        <v>1.85991046239369</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.00792703985524865</v>
+        <v>2.114991667278616</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.864183942793325</v>
+        <v>4.850895747664842</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>2.114991667278616</v>
+        <v>1.877718207847751e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.850895747664842</v>
+        <v>259854598.2637222</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.877718207847751e-15</v>
+        <v>4.548462200018947e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>259854598.2637222</v>
+        <v>126.7918183350131</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>4.548462200018947e-07</v>
+        <v>0.0001057452488517162</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>126.7918183350131</v>
+        <v>7.041154444901371</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001057452488517162</v>
+        <v>1.412422910834273</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>7.041154444901371</v>
+        <v>0.005242622711472867</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.412422910834273</v>
+        <v>3.247325720895109</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.005242622711472867</v>
+        <v>0.9593262507786617</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.247325720895109</v>
+        <v>1.469001410770752</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9593262507786617</v>
+        <v>23</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.469001410770752</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.3797239095726722</v>
       </c>
     </row>
@@ -8207,72 +7997,66 @@
         <v>1.119084000814689e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.2752094961015365</v>
+        <v>4.005175300579935e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.011561583779347</v>
+        <v>5.107301459615517e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>4.005175300579935e-07</v>
+        <v>-0.03899346271628711</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>5.107301459615517e-06</v>
+        <v>0.08355974739073573</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.03899346271628711</v>
+        <v>0.008500519673962953</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.08355974739073573</v>
+        <v>1.864905026903782</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.008500519673962953</v>
+        <v>2.079088109998119</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.858873914703067</v>
+        <v>4.841866461346166</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>2.079088109998119</v>
+        <v>1.884728010409743e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.841866461346166</v>
+        <v>251404802.5456087</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.884728010409743e-15</v>
+        <v>4.721993653382025e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>251404802.5456087</v>
+        <v>119.1230554585596</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>4.721993653382025e-07</v>
+        <v>0.0001099135361421</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>119.1230554585596</v>
+        <v>6.788785975996216</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001099135361421</v>
+        <v>1.478813237015518</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>6.788785975996216</v>
+        <v>0.005065652740070399</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.478813237015518</v>
+        <v>3.272540308151694</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.005065652740070399</v>
+        <v>0.9598786960384972</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.272540308151694</v>
+        <v>1.518487603712477</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9598786960384972</v>
+        <v>38</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.518487603712477</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.3715408966659586</v>
       </c>
     </row>
@@ -8287,72 +8071,66 @@
         <v>1.079003568415797e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.2627456860899705</v>
+        <v>3.855225570903644e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.00337556447356</v>
+        <v>5.10319989778398e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>3.855225570903644e-07</v>
+        <v>-0.0355262229650812</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>5.10319989778398e-06</v>
+        <v>0.08926603060111407</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.0355262229650812</v>
+        <v>0.009227894695258393</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.08926603060111407</v>
+        <v>1.851411627342693</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.009227894695258393</v>
+        <v>2.066834123089595</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.836603491348933</v>
+        <v>4.767220333725083</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.066834123089595</v>
+        <v>1.944213033503115e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.767220333725083</v>
+        <v>233445785.6792859</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.944213033503115e-15</v>
+        <v>5.063210307687163e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>233445785.6792859</v>
+        <v>105.9536510240991</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>5.063210307687163e-07</v>
+        <v>0.0001090517265357938</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>105.9536510240991</v>
+        <v>6.466229203678676</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001090517265357938</v>
+        <v>1.50805568922426</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>6.466229203678676</v>
+        <v>0.004559683888608976</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.50805568922426</v>
+        <v>3.343751362252991</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.004559683888608976</v>
+        <v>0.9592525663804307</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.343751362252991</v>
+        <v>1.541171494454088</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9592525663804307</v>
+        <v>35</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.541171494454088</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.3957641962839807</v>
       </c>
     </row>
@@ -8367,72 +8145,66 @@
         <v>1.041121456219998e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.2436213158478846</v>
+        <v>3.710554819142352e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.9895956054157726</v>
+        <v>5.099599912160904e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>3.710554819142352e-07</v>
+        <v>-0.03267672845581884</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>5.099599912160904e-06</v>
+        <v>0.0935082693833487</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.03267672845581884</v>
+        <v>0.009810349770948072</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.0935082693833487</v>
+        <v>1.833151681637786</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.009810349770948072</v>
+        <v>1.933546509219503</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.81199561664059</v>
+        <v>4.196998737201715</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.933546509219503</v>
+        <v>3.028970688203654e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.196998737201715</v>
+        <v>148501432.113121</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>3.028970688203654e-15</v>
+        <v>7.912576779161678e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>148501432.113121</v>
+        <v>66.79690720026498</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>7.912576779161678e-07</v>
+        <v>0.000105286562982056</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>66.79690720026498</v>
+        <v>7.375222093263379</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.000105286562982056</v>
+        <v>1.301342485784546</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>7.375222093263379</v>
+        <v>0.005726946875575545</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.301342485784546</v>
+        <v>3.292442057776806</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.005726946875575545</v>
+        <v>0.9576158832577226</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.292442057776806</v>
+        <v>1.564254414473818</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9576158832577226</v>
+        <v>35</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.564254414473818</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.4292234411551953</v>
       </c>
     </row>
@@ -8809,7 +8581,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.828320579339406</v>
+        <v>1.866183431169762</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.615112674692221</v>
@@ -8898,7 +8670,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.894772709931421</v>
+        <v>1.92389645464084</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.721271668811568</v>
@@ -8987,7 +8759,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.898415670511358</v>
+        <v>1.928552778013245</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.859139727903282</v>
@@ -9076,7 +8848,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.891734294406715</v>
+        <v>1.923239377725402</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.70380018156655</v>
@@ -9165,7 +8937,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.893574464955909</v>
+        <v>1.924677219512125</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.985467900831297</v>
@@ -9254,7 +9026,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.888925230821475</v>
+        <v>1.914186976593829</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.95771811100527</v>
@@ -9343,7 +9115,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.885117721592115</v>
+        <v>1.912098719327299</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.989901625931739</v>
@@ -9432,7 +9204,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.887327566461388</v>
+        <v>1.915954412659322</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.792467310338226</v>
@@ -9521,7 +9293,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.893623192319528</v>
+        <v>1.926737820743532</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.807151864063324</v>
@@ -9610,7 +9382,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.897554549293639</v>
+        <v>1.931717328233084</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.879688480589946</v>
@@ -9699,7 +9471,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.901188324811334</v>
+        <v>1.938634016603514</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.857182529127554</v>
@@ -9788,7 +9560,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.893025721363982</v>
+        <v>1.933378101800448</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.794406525483786</v>
@@ -9877,7 +9649,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.89364128132608</v>
+        <v>1.931463173561461</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.826055744413763</v>
@@ -9966,7 +9738,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.889335120039311</v>
+        <v>1.925300557943337</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.03612664010603</v>
@@ -10055,7 +9827,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.855468584943794</v>
+        <v>1.887058440434576</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.675147205741692</v>
@@ -10144,7 +9916,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.852555296940514</v>
+        <v>1.880292000480333</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.638410288525777</v>
@@ -10233,7 +10005,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.855387079795055</v>
+        <v>1.887142858763541</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.653650678172456</v>
@@ -10322,7 +10094,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.827898980103607</v>
+        <v>1.861331516355976</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.486296757444523</v>
@@ -10411,7 +10183,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.866166050979737</v>
+        <v>1.894870038669116</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.658575105895166</v>
@@ -10500,7 +10272,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.868166940926512</v>
+        <v>1.901529216367185</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.573940785666353</v>
@@ -10589,7 +10361,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.871870901456071</v>
+        <v>1.911048176857614</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.649793397025381</v>
@@ -10678,7 +10450,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.871616905270243</v>
+        <v>1.912302518579435</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.677324391309843</v>
@@ -10767,7 +10539,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.870366195342843</v>
+        <v>1.906276142740207</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.744852562127217</v>
@@ -10856,7 +10628,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.835206512866614</v>
+        <v>1.872390748865634</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.703830071779356</v>
@@ -10945,7 +10717,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.83277119741337</v>
+        <v>1.87009764405545</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.809274276281434</v>
@@ -11034,7 +10806,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.828013594710739</v>
+        <v>1.862729235818163</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.679909481238195</v>
@@ -11123,7 +10895,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.829107933857644</v>
+        <v>1.86434659822417</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.673910491093587</v>
@@ -11212,7 +10984,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.826516138354521</v>
+        <v>1.85774093601132</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.774904938107637</v>
@@ -11301,7 +11073,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.829615781568843</v>
+        <v>1.854055485402805</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.574728225027166</v>
@@ -11390,7 +11162,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.862335505541478</v>
+        <v>1.886732329793543</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.722862220052817</v>
@@ -11479,7 +11251,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.865560933896814</v>
+        <v>1.889160626599293</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.855157570079497</v>
@@ -11568,7 +11340,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.863536013581731</v>
+        <v>1.884795414555964</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.799174632157425</v>
@@ -11657,7 +11429,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.899720428756574</v>
+        <v>1.917294502029541</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.770720800801404</v>
@@ -11746,7 +11518,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.896478458240187</v>
+        <v>1.916076734350959</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.862864270497004</v>
@@ -11835,7 +11607,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.893232214980562</v>
+        <v>1.896951290854521</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.848362225901922</v>
@@ -11924,7 +11696,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.852252954120771</v>
+        <v>1.866705958388193</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.598219506137583</v>
@@ -12013,7 +11785,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.851584204103518</v>
+        <v>1.863844813787701</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.671366918997948</v>
@@ -12102,7 +11874,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.851495095486349</v>
+        <v>1.866874449121246</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.69439875201817</v>
@@ -12191,7 +11963,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.894911386268099</v>
+        <v>1.904880427848737</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.719130239289057</v>
@@ -12280,7 +12052,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.898099451103519</v>
+        <v>1.906951072095973</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.72878740843132</v>
@@ -12369,7 +12141,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.904767596392333</v>
+        <v>1.917095166887548</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.574622696611553</v>
@@ -12458,7 +12230,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.910108137752442</v>
+        <v>1.926420020808984</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.674952564099042</v>
@@ -12547,7 +12319,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.916002351738073</v>
+        <v>1.941353024665882</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.59077515604497</v>
@@ -12636,7 +12408,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.876715135273149</v>
+        <v>1.916338935265039</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.670693211335419</v>
@@ -12725,7 +12497,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.873866972732516</v>
+        <v>1.909087125240446</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.649309377904684</v>
@@ -12814,7 +12586,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.868345188262694</v>
+        <v>1.90018935565246</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.597698258629076</v>
@@ -12903,7 +12675,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.856726925901043</v>
+        <v>1.883341150848985</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.680270512612286</v>
@@ -12992,7 +12764,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.851066001605311</v>
+        <v>1.877603008825118</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.648343156621149</v>
@@ -13081,7 +12853,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.850666663448646</v>
+        <v>1.87675994657945</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.626682809045991</v>
@@ -13170,7 +12942,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.887958738137137</v>
+        <v>1.914909146339624</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.142163030700994</v>
@@ -13259,7 +13031,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.892483964238128</v>
+        <v>1.923884997910705</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.873530906005061</v>
@@ -13348,7 +13120,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.895270586061833</v>
+        <v>1.927032479645612</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.029180279274964</v>
@@ -13437,7 +13209,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.89845082660326</v>
+        <v>1.932226099289237</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.022055654621382</v>
@@ -13526,7 +13298,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.896188066958296</v>
+        <v>1.933630991713888</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.129642499269532</v>
@@ -13615,7 +13387,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.898215495129599</v>
+        <v>1.939938491359896</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.887661791230713</v>
@@ -13704,7 +13476,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.899493554058325</v>
+        <v>1.943024561823463</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.138615680754866</v>
@@ -13793,7 +13565,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.897737192896569</v>
+        <v>1.939244042611429</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.095147699809353</v>
@@ -13882,7 +13654,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.897894196928926</v>
+        <v>1.933306136945682</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.175722579797741</v>
@@ -13971,7 +13743,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.940141376510336</v>
+        <v>1.970692613672038</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.464109071010605</v>
@@ -14060,7 +13832,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.940752160591407</v>
+        <v>1.979488628261381</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.079704704340686</v>
@@ -14149,7 +13921,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.945526880358579</v>
+        <v>1.989400128253934</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.177990467560138</v>
@@ -14238,7 +14010,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.969120101375245</v>
+        <v>2.018260693974623</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>5.000632217121085</v>
@@ -14327,7 +14099,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.970889922429598</v>
+        <v>2.021361425328422</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>5.204929744034149</v>
@@ -14416,7 +14188,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.974454222274521</v>
+        <v>2.027011091052126</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.791778324478221</v>
@@ -14505,7 +14277,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.971844331524277</v>
+        <v>2.02289497346381</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>5.479588732936589</v>
@@ -14594,7 +14366,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.974589452747505</v>
+        <v>2.028474668510033</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>5.60597866976698</v>
@@ -14683,7 +14455,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.969978148248501</v>
+        <v>2.022926288099534</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.992218890976826</v>
@@ -14772,7 +14544,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.971107194839342</v>
+        <v>2.021202597100091</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>5.223341561014482</v>
@@ -14861,7 +14633,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.968809664482412</v>
+        <v>2.016810082470019</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.384246640820806</v>
@@ -14950,7 +14722,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.92010897742457</v>
+        <v>1.966181690147908</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.609494334798956</v>
@@ -15039,7 +14811,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.907827423553516</v>
+        <v>1.951743928277555</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.571694385973516</v>
@@ -15128,7 +14900,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.891461319188473</v>
+        <v>1.921147456417349</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.593079616517515</v>
@@ -15217,7 +14989,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.874748992062368</v>
+        <v>1.911931058086222</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.677825221791994</v>
@@ -15306,7 +15078,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.867224646257072</v>
+        <v>1.90438945477585</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.558012767959205</v>
@@ -15395,7 +15167,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.828870820787617</v>
+        <v>1.86899910503706</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.569333380780644</v>
@@ -15484,7 +15256,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.823236236763495</v>
+        <v>1.864275212763912</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.655114046802412</v>
@@ -15573,7 +15345,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.822363123072391</v>
+        <v>1.858442966291337</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.590652891778643</v>
@@ -15662,7 +15434,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.791377523542581</v>
+        <v>1.821770269211897</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.659048385780124</v>
@@ -15751,7 +15523,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.790245944731159</v>
+        <v>1.818985683894925</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.52776013037854</v>
@@ -15840,7 +15612,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.789698496072054</v>
+        <v>1.818348941544764</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.559484962237705</v>
@@ -15929,7 +15701,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.782820343626285</v>
+        <v>1.806193670723776</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.630164334581689</v>
@@ -16215,7 +15987,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.760587505341636</v>
+        <v>1.770260305659782</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.01575060764603</v>
@@ -16304,7 +16076,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.774873990122587</v>
+        <v>1.784006481175938</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.964359973779014</v>
@@ -16393,7 +16165,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.767527092125357</v>
+        <v>1.778513604851615</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.921470144337957</v>
@@ -16482,7 +16254,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.767174688169891</v>
+        <v>1.777328000785821</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.940036363307332</v>
@@ -16571,7 +16343,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.78958668781395</v>
+        <v>1.796216070568141</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.539657179528819</v>
@@ -16660,7 +16432,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.817197429217853</v>
+        <v>1.817737399492325</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.519818789069125</v>
@@ -16749,7 +16521,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.809188189048774</v>
+        <v>1.81111608283825</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.613954028732195</v>
@@ -16838,7 +16610,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.800461426471136</v>
+        <v>1.809530044584816</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.236582649656552</v>
@@ -16927,7 +16699,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.807748187878732</v>
+        <v>1.819172980802994</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.339645569519437</v>
@@ -17016,7 +16788,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.818072624429547</v>
+        <v>1.828568745975048</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.180725965239179</v>
@@ -17105,7 +16877,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.814269255943873</v>
+        <v>1.825502043544336</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.19904953942008</v>
@@ -17194,7 +16966,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.811950044370073</v>
+        <v>1.823853763077142</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.592742821855445</v>
@@ -17283,7 +17055,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.815793884114878</v>
+        <v>1.82592775278889</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.676240681030114</v>
@@ -17372,7 +17144,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.805145366525798</v>
+        <v>1.81868200771881</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.45231145458619</v>
@@ -17461,7 +17233,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.809594797080532</v>
+        <v>1.822493679647622</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.740317831913178</v>
@@ -17550,7 +17322,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.802889024121247</v>
+        <v>1.817760988577615</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.651928809765899</v>
@@ -17639,7 +17411,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.81533384505348</v>
+        <v>1.832656944409729</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.407241639986349</v>
@@ -17728,7 +17500,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.815868319557832</v>
+        <v>1.826187356195002</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.729589672352578</v>
@@ -17817,7 +17589,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.812575460875309</v>
+        <v>1.819044840005319</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.730085196576702</v>
@@ -17906,7 +17678,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.80788839618761</v>
+        <v>1.813706951229672</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.050461709541471</v>
@@ -17995,7 +17767,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.808480278981663</v>
+        <v>1.816658472935576</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.232452809397381</v>
@@ -18084,7 +17856,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.821841565622153</v>
+        <v>1.827098598457337</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.692432585942472</v>
@@ -18173,7 +17945,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.828966979047448</v>
+        <v>1.831202335329684</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.092315548595455</v>
@@ -18262,7 +18034,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.811752556310128</v>
+        <v>1.81498181509661</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.326600005565153</v>
@@ -18351,7 +18123,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.805283788950678</v>
+        <v>1.80271921653746</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.346941692716065</v>
@@ -18440,7 +18212,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.807630795504254</v>
+        <v>1.803234162428695</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.542381498770206</v>
@@ -18529,7 +18301,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.804904142611608</v>
+        <v>1.798946626499321</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.565033780158467</v>
@@ -18618,7 +18390,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.814833989239292</v>
+        <v>1.810615076035476</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.500076067611031</v>
@@ -18707,7 +18479,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.811186833636183</v>
+        <v>1.806613743979427</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.628717332628641</v>
@@ -18796,7 +18568,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.806975312865972</v>
+        <v>1.800961074081238</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.392094584126971</v>
@@ -18885,7 +18657,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.82025311372078</v>
+        <v>1.80934375803621</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.258340886563927</v>
@@ -18974,7 +18746,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.814934590920075</v>
+        <v>1.800604800201735</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.36143660585187</v>
@@ -19063,7 +18835,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.813621059111026</v>
+        <v>1.797908163149066</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.613874249968296</v>
@@ -19152,7 +18924,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.819711126715872</v>
+        <v>1.807083569355801</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.412561242482943</v>
@@ -19241,7 +19013,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.820922961773042</v>
+        <v>1.806012017293132</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.595254916264846</v>
@@ -19330,7 +19102,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.812200445239959</v>
+        <v>1.799010831212107</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.335692626713742</v>
@@ -19419,7 +19191,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.809129325402957</v>
+        <v>1.795357729031279</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.625984424892156</v>
@@ -19508,7 +19280,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.808035145554395</v>
+        <v>1.79302635176013</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.570751674030176</v>
@@ -19597,7 +19369,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.829478702525124</v>
+        <v>1.812225708688781</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.49863297326191</v>
@@ -19686,7 +19458,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.837909507890101</v>
+        <v>1.828509244170325</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.600693947619616</v>
@@ -19775,7 +19547,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.84725527660812</v>
+        <v>1.83682955682285</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.620616513473503</v>
@@ -19864,7 +19636,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.847208327958151</v>
+        <v>1.841595304617488</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.512833899780988</v>
@@ -19953,7 +19725,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.844231596215346</v>
+        <v>1.838448503082296</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.526611197096609</v>
@@ -20042,7 +19814,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.850671242152663</v>
+        <v>1.843919910226373</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.525152307014372</v>
@@ -20131,7 +19903,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.837469088161095</v>
+        <v>1.83318304388027</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.575414410553908</v>
@@ -20220,7 +19992,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.841299939308515</v>
+        <v>1.833071013361087</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.839871889795245</v>
@@ -20309,7 +20081,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.833532753194921</v>
+        <v>1.820631834368386</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.772984528899711</v>
@@ -20398,7 +20170,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.840605811956683</v>
+        <v>1.829032280684276</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.792185242636679</v>
@@ -20487,7 +20259,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.843795756088309</v>
+        <v>1.829501532237235</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.923335524218346</v>
@@ -20576,7 +20348,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.860548618880715</v>
+        <v>1.843648563753457</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.624442139664602</v>
@@ -20665,7 +20437,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.86253499238039</v>
+        <v>1.848411751984819</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.80445606690995</v>
@@ -20754,7 +20526,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.862920327818321</v>
+        <v>1.849631486437151</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.828896082662577</v>
@@ -20843,7 +20615,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.857436205452223</v>
+        <v>1.850540344447608</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.908923534364929</v>
@@ -20932,7 +20704,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.859950334767088</v>
+        <v>1.852124073258961</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.380041293149874</v>
@@ -21021,7 +20793,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.859190310658032</v>
+        <v>1.850624452214614</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.32118823067459</v>
@@ -21110,7 +20882,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.86188706896273</v>
+        <v>1.849458135015682</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.75406636346926</v>
@@ -21199,7 +20971,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.862109062841186</v>
+        <v>1.853494392692551</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.728751991700444</v>
@@ -21288,7 +21060,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.862795878867655</v>
+        <v>1.852327656494956</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.318685468877845</v>
@@ -21377,7 +21149,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.855969273799026</v>
+        <v>1.847052352617526</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.562211176143708</v>
@@ -21466,7 +21238,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.877040124386389</v>
+        <v>1.865453896165165</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.745332947738826</v>
@@ -21555,7 +21327,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.88079594156383</v>
+        <v>1.867487839718667</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.359692324880469</v>
@@ -21644,7 +21416,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.884452959451698</v>
+        <v>1.877611458643641</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.996413499487438</v>
@@ -21733,7 +21505,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.885969442184461</v>
+        <v>1.884023414697255</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.613519159845177</v>
@@ -21822,7 +21594,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.885651915168123</v>
+        <v>1.882949887734024</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.648974706702442</v>
@@ -21911,7 +21683,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.877402709359781</v>
+        <v>1.881209196422189</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.571093772834964</v>
@@ -22000,7 +21772,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.880483879649604</v>
+        <v>1.882935925680679</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.808331247528211</v>
@@ -22089,7 +21861,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.879377549766189</v>
+        <v>1.883703194374853</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.316314716184737</v>
@@ -22178,7 +21950,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.882391832796056</v>
+        <v>1.883870793300803</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.541181244588862</v>
@@ -22267,7 +22039,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.87541162963892</v>
+        <v>1.877854117099997</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.742434262382566</v>
@@ -22356,7 +22128,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.863073895783789</v>
+        <v>1.866972102657498</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.293770822622541</v>
@@ -22445,7 +22217,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.835471022171555</v>
+        <v>1.847990444682616</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.714635837873259</v>
@@ -22534,7 +22306,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.828111747302237</v>
+        <v>1.840027270505905</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.568241943419784</v>
@@ -22623,7 +22395,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.820143715792174</v>
+        <v>1.827611767281377</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.144423123270538</v>
@@ -22712,7 +22484,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.819131639444235</v>
+        <v>1.824808767995223</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.490429333303601</v>
@@ -22801,7 +22573,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.803654226963608</v>
+        <v>1.813472503055669</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.768049875695147</v>
@@ -22890,7 +22662,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.804585999948555</v>
+        <v>1.812531937255853</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.632270483278886</v>
@@ -22979,7 +22751,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.809220494932602</v>
+        <v>1.817037823660386</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.763842718746938</v>
@@ -23068,7 +22840,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.79841855070873</v>
+        <v>1.803133625379141</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.774477349824897</v>
@@ -23157,7 +22929,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.797386523055351</v>
+        <v>1.798163955273151</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.333343603816616</v>
@@ -23246,7 +23018,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.796487514503651</v>
+        <v>1.792944492037515</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.479851083061006</v>
@@ -23335,7 +23107,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.792479158245401</v>
+        <v>1.787285788778224</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.690362507255565</v>
@@ -23621,7 +23393,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.785655867989387</v>
+        <v>1.792440159164901</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.831549030196234</v>
@@ -23710,7 +23482,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.833742512300595</v>
+        <v>1.839060240655379</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.756154937762027</v>
@@ -23799,7 +23571,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.841536527268701</v>
+        <v>1.84618712922345</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.720595766268187</v>
@@ -23888,7 +23660,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.835004814853425</v>
+        <v>1.84263877386056</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.629842189099355</v>
@@ -23977,7 +23749,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.834083731322444</v>
+        <v>1.841044740371935</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.26021442130572</v>
@@ -24066,7 +23838,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.833316743447515</v>
+        <v>1.836057227917562</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.504707441174799</v>
@@ -24155,7 +23927,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.836297828090095</v>
+        <v>1.834779802337988</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.06599425812495</v>
@@ -24244,7 +24016,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.849864111981203</v>
+        <v>1.848618858864176</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.108344719282959</v>
@@ -24333,7 +24105,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.856982261086563</v>
+        <v>1.85222357588128</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.354741568702376</v>
@@ -24422,7 +24194,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.86240850391268</v>
+        <v>1.86251509964843</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.480859366658144</v>
@@ -24511,7 +24283,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.865392699884319</v>
+        <v>1.865689177017388</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.589518542830125</v>
@@ -24600,7 +24372,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.863035662263965</v>
+        <v>1.867120222045757</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.515760438162973</v>
@@ -24689,7 +24461,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.871338190505497</v>
+        <v>1.875205456590481</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.708331110040917</v>
@@ -24778,7 +24550,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.872764906548672</v>
+        <v>1.882662152132642</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.275557417083818</v>
@@ -24867,7 +24639,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.846219922557875</v>
+        <v>1.8625646260573</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.977615959973012</v>
@@ -24956,7 +24728,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.848302073584745</v>
+        <v>1.864022556592569</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.272928329926781</v>
@@ -25045,7 +24817,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.851115020273858</v>
+        <v>1.871639400387124</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.599309045723239</v>
@@ -25134,7 +24906,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.829209923650571</v>
+        <v>1.853305226261833</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.83273358539018</v>
@@ -25223,7 +24995,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.854859426562011</v>
+        <v>1.878700889666934</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.022034046432569</v>
@@ -25312,7 +25084,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.852526458297016</v>
+        <v>1.878203224372277</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.363537397264363</v>
@@ -25401,7 +25173,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.853071774227743</v>
+        <v>1.87892403351318</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.207935014755436</v>
@@ -25490,7 +25262,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.848985646451988</v>
+        <v>1.87929171768368</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.078849938135797</v>
@@ -25579,7 +25351,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.841157554334854</v>
+        <v>1.86842172621052</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.129214790447475</v>
@@ -25668,7 +25440,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.820099119057845</v>
+        <v>1.847415742862411</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.056560483209079</v>
@@ -25757,7 +25529,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.817793685457783</v>
+        <v>1.843442341125578</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.096979178824259</v>
@@ -25846,7 +25618,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.818386926772578</v>
+        <v>1.842628246024883</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.228817550067598</v>
@@ -25935,7 +25707,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.820248614034479</v>
+        <v>1.841533666331884</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.973299716805829</v>
@@ -26024,7 +25796,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.816928527312767</v>
+        <v>1.837731045655405</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.523580236344979</v>
@@ -26113,7 +25885,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.820999300051813</v>
+        <v>1.834147591551102</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.901474355179943</v>
@@ -26202,7 +25974,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.848425090869996</v>
+        <v>1.850006944817462</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.171970954347416</v>
@@ -26291,7 +26063,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.844745255127336</v>
+        <v>1.847752775522569</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.212890744471831</v>
@@ -26380,7 +26152,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.838478112175655</v>
+        <v>1.841624554371077</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.072007306622669</v>
@@ -26469,7 +26241,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.865856515011543</v>
+        <v>1.863872492774798</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.034661262915072</v>
@@ -26558,7 +26330,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.861328673364345</v>
+        <v>1.857254268657321</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.32545535677956</v>
@@ -26647,7 +26419,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.860048450968498</v>
+        <v>1.841740899992914</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.971864762842723</v>
@@ -26736,7 +26508,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.811551109522634</v>
+        <v>1.81432918091593</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.224324222023291</v>
@@ -26825,7 +26597,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.809210957099183</v>
+        <v>1.813741605788243</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.13998193378158</v>
@@ -26914,7 +26686,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.807611823335025</v>
+        <v>1.81252627190193</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.945273732845581</v>
@@ -27003,7 +26775,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.833310294494309</v>
+        <v>1.838045686214661</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.004576938150495</v>
@@ -27092,7 +26864,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.829192487419365</v>
+        <v>1.836480979698875</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.860605634273858</v>
@@ -27181,7 +26953,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.822384148539001</v>
+        <v>1.834430525264076</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.18961439458422</v>
@@ -27270,7 +27042,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.822031342131087</v>
+        <v>1.84114944000127</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.959506487839506</v>
@@ -27359,7 +27131,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.82136636765698</v>
+        <v>1.842438139979689</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.070339784812938</v>
@@ -27448,7 +27220,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.802006949404767</v>
+        <v>1.829001004731751</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.907882612173558</v>
@@ -27537,7 +27309,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.799995025602162</v>
+        <v>1.830389501134416</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.883042865172115</v>
@@ -27626,7 +27398,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.796082862353455</v>
+        <v>1.826164454690169</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.208398104473144</v>
@@ -27715,7 +27487,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.785788046787914</v>
+        <v>1.808806018711795</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.21994123384668</v>
@@ -27804,7 +27576,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.785512117831619</v>
+        <v>1.812281928470495</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.176093044909253</v>
@@ -27893,7 +27665,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.786550641406131</v>
+        <v>1.816223166110805</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.992871877779672</v>
@@ -27982,7 +27754,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.813423350099885</v>
+        <v>1.845827908705769</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.78995053306477</v>
@@ -28071,7 +27843,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.849018984662708</v>
+        <v>1.873636610514389</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.415784213527607</v>
@@ -28160,7 +27932,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.852606157256779</v>
+        <v>1.874484193143605</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.200859130944152</v>
@@ -28249,7 +28021,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.86274851552319</v>
+        <v>1.886803481594542</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.16313327873508</v>
@@ -28338,7 +28110,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.850603915235687</v>
+        <v>1.87770796982945</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.045245364719883</v>
@@ -28427,7 +28199,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.85657323904954</v>
+        <v>1.885554410844243</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.433726415776089</v>
@@ -28516,7 +28288,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.860728848865677</v>
+        <v>1.885267142946567</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.480872674680333</v>
@@ -28605,7 +28377,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.862058894640199</v>
+        <v>1.887901356499018</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.000109939684366</v>
@@ -28694,7 +28466,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.839690171093815</v>
+        <v>1.870220191506172</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.261791283914739</v>
@@ -28783,7 +28555,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.861889038762868</v>
+        <v>1.892144029299696</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.978172600587726</v>
@@ -28872,7 +28644,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.865028061852632</v>
+        <v>1.897390092694904</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.276604564462705</v>
@@ -28961,7 +28733,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.877180400956242</v>
+        <v>1.910851609585921</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.087348943590879</v>
@@ -29050,7 +28822,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.892760997466367</v>
+        <v>1.935965673741566</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.668508559962115</v>
@@ -29139,7 +28911,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.895798628112797</v>
+        <v>1.937294451893373</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.40240817999771</v>
@@ -29228,7 +29000,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.897532795864168</v>
+        <v>1.937485224013998</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.798992411983773</v>
@@ -29317,7 +29089,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.886142114902239</v>
+        <v>1.929918322949125</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.313151932488323</v>
@@ -29406,7 +29178,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.881472001331876</v>
+        <v>1.928117736294723</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.471425497377246</v>
@@ -29495,7 +29267,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.87842511085201</v>
+        <v>1.927384979500535</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.679440133416132</v>
@@ -29584,7 +29356,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.88225466313316</v>
+        <v>1.926820267505815</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.350261881102956</v>
@@ -29673,7 +29445,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.884965959415438</v>
+        <v>1.926898058695018</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.712241785029019</v>
@@ -29762,7 +29534,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.859911790194185</v>
+        <v>1.900826004619486</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.574964256526645</v>
@@ -29851,7 +29623,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.868197414287868</v>
+        <v>1.901618139698162</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.348380994283794</v>
@@ -29940,7 +29712,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.857075024966795</v>
+        <v>1.882170403079783</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.044115894439219</v>
@@ -30029,7 +29801,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.849850693384793</v>
+        <v>1.87551610432099</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.883240844635181</v>
@@ -30118,7 +29890,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.846700367427732</v>
+        <v>1.867415799958143</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.288519220042245</v>
@@ -30207,7 +29979,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.828467847032888</v>
+        <v>1.851094997042622</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.184705751845918</v>
@@ -30296,7 +30068,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.818082572180883</v>
+        <v>1.837190842780907</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.125990649063542</v>
@@ -30385,7 +30157,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.809023678894762</v>
+        <v>1.827305932620361</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.060054239371556</v>
@@ -30474,7 +30246,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.79104204440656</v>
+        <v>1.805718392481902</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.350593208594923</v>
@@ -30563,7 +30335,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.789691501276342</v>
+        <v>1.798173246935167</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.445175474022419</v>
@@ -30652,7 +30424,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.794738177216451</v>
+        <v>1.797439426711367</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.147973002598762</v>
@@ -30741,7 +30513,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.786674413640661</v>
+        <v>1.787639897895994</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.27504714857494</v>
@@ -31027,7 +30799,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.861989112056473</v>
+        <v>1.854622524867762</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.217199555298182</v>
@@ -31116,7 +30888,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.878579258120189</v>
+        <v>1.865741692583097</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.647858798782347</v>
@@ -31205,7 +30977,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.880610171906756</v>
+        <v>1.868347940374553</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.410220046854608</v>
@@ -31294,7 +31066,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.878660415868823</v>
+        <v>1.862019462487165</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.587301986932298</v>
@@ -31383,7 +31155,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.87897771888407</v>
+        <v>1.856634592485935</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.555245868289859</v>
@@ -31472,7 +31244,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.87969148512929</v>
+        <v>1.855494977559303</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.911703958583349</v>
@@ -31561,7 +31333,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.876090115456323</v>
+        <v>1.839934777158846</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.743402516022987</v>
@@ -31650,7 +31422,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.87866653419694</v>
+        <v>1.846504802488559</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.510300767946755</v>
@@ -31739,7 +31511,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.894888495523632</v>
+        <v>1.865185775572385</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.498355570303945</v>
@@ -31828,7 +31600,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.91324735252468</v>
+        <v>1.883141164439398</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.381095420379268</v>
@@ -31917,7 +31689,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.914522891707032</v>
+        <v>1.885696063997776</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.542847280685312</v>
@@ -32006,7 +31778,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.910693552519005</v>
+        <v>1.884382353038392</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.725374501182199</v>
@@ -32095,7 +31867,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.917257022224368</v>
+        <v>1.892795502762361</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.58911274973443</v>
@@ -32184,7 +31956,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.911931086538724</v>
+        <v>1.886550295690052</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.845859725381026</v>
@@ -32273,7 +32045,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.898692176152211</v>
+        <v>1.878175521608094</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.120883553269267</v>
@@ -32362,7 +32134,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.905629676094983</v>
+        <v>1.888240594450549</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.93507024514504</v>
@@ -32451,7 +32223,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.90767126556996</v>
+        <v>1.893302859685985</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.670001428088943</v>
@@ -32540,7 +32312,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.908636424079687</v>
+        <v>1.89509712168203</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.411713596697796</v>
@@ -32629,7 +32401,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.916431469331382</v>
+        <v>1.902273084512983</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.182720396064632</v>
@@ -32718,7 +32490,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.918296029510758</v>
+        <v>1.906439155910059</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.290603820731991</v>
@@ -32807,7 +32579,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.91787712124111</v>
+        <v>1.904115054918807</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.841067110136611</v>
@@ -32896,7 +32668,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.916954994548022</v>
+        <v>1.9099359853777</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.77692451556189</v>
@@ -32985,7 +32757,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.910811632327998</v>
+        <v>1.907049553178917</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.208414494877332</v>
@@ -33074,7 +32846,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.885842215019361</v>
+        <v>1.88559161726802</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.888800174415542</v>
@@ -33163,7 +32935,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.882466193847863</v>
+        <v>1.881833200410139</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.803394577202227</v>
@@ -33252,7 +33024,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.8793723651253</v>
+        <v>1.876189775455442</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.059619816609931</v>
@@ -33341,7 +33113,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.881351858832987</v>
+        <v>1.877270681862308</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.715537875370802</v>
@@ -33430,7 +33202,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.874399613357757</v>
+        <v>1.867136822658803</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.343921922212443</v>
@@ -33519,7 +33291,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.879831486295483</v>
+        <v>1.873254519310883</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.811906083326767</v>
@@ -33608,7 +33380,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.874464534196665</v>
+        <v>1.868479924304376</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.759189881775367</v>
@@ -33697,7 +33469,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.869117567338503</v>
+        <v>1.862727570826308</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.677179179304412</v>
@@ -33786,7 +33558,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.869248327713903</v>
+        <v>1.863338088209006</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.848834221090473</v>
@@ -33875,7 +33647,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.866169245482685</v>
+        <v>1.860414421782731</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.967175721180599</v>
@@ -33964,7 +33736,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.855249146601639</v>
+        <v>1.852261359677475</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.787039257623568</v>
@@ -34053,7 +33825,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.842864030688389</v>
+        <v>1.833930155764809</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.817489503215648</v>
@@ -34142,7 +33914,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.834711224224717</v>
+        <v>1.834013536945742</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.651870299611799</v>
@@ -34231,7 +34003,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.839022607842789</v>
+        <v>1.840890646730541</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.907341783902811</v>
@@ -34320,7 +34092,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.844713263176601</v>
+        <v>1.847072359071966</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.689341268335806</v>
@@ -34409,7 +34181,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.864386006911771</v>
+        <v>1.863778602162501</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.858363259953469</v>
@@ -34498,7 +34270,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.867194714403643</v>
+        <v>1.868205155085249</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.521748372100849</v>
@@ -34587,7 +34359,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.86626511009914</v>
+        <v>1.869752546473184</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.910555999195859</v>
@@ -34676,7 +34448,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.861061758094941</v>
+        <v>1.872021905770603</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.671755049361805</v>
@@ -34765,7 +34537,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.866149782267999</v>
+        <v>1.873470941021732</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.314743179295508</v>
@@ -34854,7 +34626,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.864479557862093</v>
+        <v>1.875189757749354</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.993610716973209</v>
@@ -34943,7 +34715,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.871937047244251</v>
+        <v>1.881763773236694</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.089791443506341</v>
@@ -35032,7 +34804,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.871732442133035</v>
+        <v>1.873567909898282</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.965748397520506</v>
@@ -35121,7 +34893,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.87442598558937</v>
+        <v>1.872656897095107</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.350781070889947</v>
@@ -35210,7 +34982,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.879878320140041</v>
+        <v>1.878958716479102</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.637172950934644</v>
@@ -35299,7 +35071,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.894723044160065</v>
+        <v>1.892018676463884</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.849758504507312</v>
@@ -35388,7 +35160,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.913700970852287</v>
+        <v>1.91166259063537</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.800832857936572</v>
@@ -35477,7 +35249,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.914129098951977</v>
+        <v>1.9143351248351</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.080059256435232</v>
@@ -35566,7 +35338,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.908751545221222</v>
+        <v>1.910371671114834</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.192045148405427</v>
@@ -35655,7 +35427,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.914006683296714</v>
+        <v>1.910122409927799</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.895802357675604</v>
@@ -35744,7 +35516,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.918625447254316</v>
+        <v>1.913296524666934</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.605388534035273</v>
@@ -35833,7 +35605,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.916464871980469</v>
+        <v>1.90904958603577</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.224954309953874</v>
@@ -35922,7 +35694,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.922087313846682</v>
+        <v>1.91458068076588</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.634218573361641</v>
@@ -36011,7 +35783,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.928119377543327</v>
+        <v>1.920979336937974</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.177372105693054</v>
@@ -36100,7 +35872,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.926921992635298</v>
+        <v>1.9246544730534</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.450249797998195</v>
@@ -36189,7 +35961,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.929764213631948</v>
+        <v>1.926698188536993</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.737264417339394</v>
@@ -36278,7 +36050,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.926941611862195</v>
+        <v>1.927301289576533</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.944075060585522</v>
@@ -36367,7 +36139,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.931436875547585</v>
+        <v>1.938920753465822</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.315933899427097</v>
@@ -36456,7 +36228,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.930981876721715</v>
+        <v>1.938387209072296</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.62992891354298</v>
@@ -36545,7 +36317,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.926039582063869</v>
+        <v>1.93761142839293</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.092507725602405</v>
@@ -36634,7 +36406,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.923350211793982</v>
+        <v>1.929953895059076</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.106057506293697</v>
@@ -36723,7 +36495,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.915200796286378</v>
+        <v>1.923362419530165</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.65472591484404</v>
@@ -36812,7 +36584,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.91429602319404</v>
+        <v>1.919624496752556</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.725642329076919</v>
@@ -36901,7 +36673,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.918223219685681</v>
+        <v>1.918770655795837</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.312278778159647</v>
@@ -36990,7 +36762,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.917989836494701</v>
+        <v>1.915817809538516</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.367989381255237</v>
@@ -37079,7 +36851,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.91428655129235</v>
+        <v>1.915128291183015</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.824025408896058</v>
@@ -37168,7 +36940,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.905670606715908</v>
+        <v>1.906162864774525</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.356525932800516</v>
@@ -37257,7 +37029,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.901627581634473</v>
+        <v>1.89231113074736</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.976013580133441</v>
@@ -37346,7 +37118,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.885660861684656</v>
+        <v>1.873058246234056</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.372199323350934</v>
@@ -37435,7 +37207,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.889942057203353</v>
+        <v>1.875208013590882</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.602924208005077</v>
@@ -37524,7 +37296,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.890531853818527</v>
+        <v>1.87004483490657</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>4.194862315013532</v>
@@ -37613,7 +37385,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.844832865941291</v>
+        <v>1.834904863925815</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.950698814532238</v>
@@ -37702,7 +37474,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.839426485782473</v>
+        <v>1.831383898766454</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.720667225769387</v>
@@ -37791,7 +37563,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.840281742184456</v>
+        <v>1.830294588353679</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.640069889936664</v>
@@ -37880,7 +37652,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.836599821965816</v>
+        <v>1.822942968241021</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.720838751966606</v>
@@ -37969,7 +37741,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.835774644977327</v>
+        <v>1.823476939551538</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.875315803836287</v>
@@ -38058,7 +37830,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.8335798221583</v>
+        <v>1.822877871003086</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.637974797776381</v>
@@ -38147,7 +37919,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.829555159125124</v>
+        <v>1.821721807978985</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.747781962760861</v>
@@ -38433,7 +38205,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.654210134256787</v>
+        <v>1.670803474087557</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.745123052499704</v>
@@ -38522,7 +38294,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.70083204794867</v>
+        <v>1.712989392006282</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.842566538454583</v>
@@ -38611,7 +38383,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.704092317625749</v>
+        <v>1.717152187622994</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.784436198865342</v>
@@ -38700,7 +38472,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.701357994115976</v>
+        <v>1.717859045509691</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.596676733943672</v>
@@ -38789,7 +38561,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.712777967781015</v>
+        <v>1.727769353230345</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.696485423670925</v>
@@ -38878,7 +38650,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.731357311369985</v>
+        <v>1.742313407592116</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.711327267532426</v>
@@ -38967,7 +38739,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.728769036348068</v>
+        <v>1.739514859072725</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.820572311080975</v>
@@ -39056,7 +38828,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.734430310126372</v>
+        <v>1.753336521754237</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.781082310225357</v>
@@ -39145,7 +38917,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.736894676839204</v>
+        <v>1.756135082171462</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.891729126096153</v>
@@ -39234,7 +39006,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.780031844766812</v>
+        <v>1.785099150494443</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.274748929114072</v>
@@ -39323,7 +39095,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.77688626914676</v>
+        <v>1.77928099905448</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.742742045727796</v>
@@ -39412,7 +39184,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.764708529068965</v>
+        <v>1.764964122007481</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.906600688855753</v>
@@ -39501,7 +39273,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.766791080008849</v>
+        <v>1.769733277542783</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.795688744687623</v>
@@ -39590,7 +39362,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.764935829305299</v>
+        <v>1.765142619699678</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.405512532574285</v>
@@ -39679,7 +39451,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.760048968631793</v>
+        <v>1.755017935374111</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.599354054683445</v>
@@ -39768,7 +39540,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.769298935138083</v>
+        <v>1.762913007628197</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.208165041196246</v>
@@ -39857,7 +39629,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.777497441040496</v>
+        <v>1.771724917953905</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.224524225692796</v>
@@ -39946,7 +39718,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.769813936414966</v>
+        <v>1.763170215980835</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.22259965477081</v>
@@ -40035,7 +39807,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.796611586136662</v>
+        <v>1.782686949772303</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.445574026357821</v>
@@ -40124,7 +39896,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.798501013428565</v>
+        <v>1.785288709690881</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.466193861213282</v>
@@ -40213,7 +39985,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.79384532540384</v>
+        <v>1.78435450415291</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.611184424739983</v>
@@ -40302,7 +40074,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.809212585341067</v>
+        <v>1.800232664015373</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.406601974492722</v>
@@ -40391,7 +40163,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.798105539670116</v>
+        <v>1.789119775918974</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.754913778020449</v>
@@ -40480,7 +40252,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.804065143706724</v>
+        <v>1.791256342113815</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.405400804080394</v>
@@ -40569,7 +40341,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.79899015518979</v>
+        <v>1.787216579550521</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.886182026207381</v>
@@ -40658,7 +40430,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.80865348620614</v>
+        <v>1.797139789242523</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.782592119309045</v>
@@ -40747,7 +40519,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.817004255072292</v>
+        <v>1.808448766484656</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.398846511913398</v>
@@ -40836,7 +40608,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.810563239230026</v>
+        <v>1.802264450997695</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.02126498448549</v>
@@ -40925,7 +40697,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.800180574625948</v>
+        <v>1.788567173536962</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.135599996301059</v>
@@ -41014,7 +40786,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.802552074870459</v>
+        <v>1.789317116963626</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.358533455079829</v>
@@ -41103,7 +40875,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.801556619393471</v>
+        <v>1.786976079597041</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.549541731905309</v>
@@ -41192,7 +40964,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.802247128759884</v>
+        <v>1.790668715923875</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.548017217570492</v>
@@ -41281,7 +41053,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.797640065598597</v>
+        <v>1.784008401194553</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.451939540990665</v>
@@ -41370,7 +41142,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.785322902096029</v>
+        <v>1.773154300692892</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.348599972879089</v>
@@ -41459,7 +41231,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.784089585312392</v>
+        <v>1.762071743928289</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.914496918809018</v>
@@ -41548,7 +41320,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.754514579330541</v>
+        <v>1.743716403332196</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.844172802989211</v>
@@ -41637,7 +41409,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.748369645499522</v>
+        <v>1.737278596915095</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.82242999568495</v>
@@ -41726,7 +41498,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.752877273838069</v>
+        <v>1.739895408433728</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.796661754171769</v>
@@ -41815,7 +41587,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.749855594497436</v>
+        <v>1.740557136644778</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.883161553820721</v>
@@ -41904,7 +41676,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.759393225558324</v>
+        <v>1.748954688103259</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.785574263197442</v>
@@ -41993,7 +41765,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.759426624065682</v>
+        <v>1.747141917780276</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.780210459854187</v>
@@ -42082,7 +41854,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.763284367260382</v>
+        <v>1.750083713579109</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.642547790977048</v>
@@ -42171,7 +41943,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.775412131964142</v>
+        <v>1.760217818373609</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.721512644577881</v>
@@ -42260,7 +42032,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.77434337363847</v>
+        <v>1.76310447967025</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.746177575114326</v>
@@ -42349,7 +42121,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.771873877795494</v>
+        <v>1.761847701862811</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.797861526315586</v>
@@ -42438,7 +42210,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.77069354252506</v>
+        <v>1.76075225635226</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.869328303603044</v>
@@ -42527,7 +42299,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.756906091029216</v>
+        <v>1.745516845041796</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.780358160020948</v>
@@ -42616,7 +42388,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.774420531892821</v>
+        <v>1.76474271478881</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.675270097541978</v>
@@ -42705,7 +42477,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.770003252322916</v>
+        <v>1.761394438747307</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.815205745498687</v>
@@ -42794,7 +42566,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.796665744047458</v>
+        <v>1.790734547500054</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.904431754058611</v>
@@ -42883,7 +42655,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.811963295246788</v>
+        <v>1.805892554022365</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.831378182410964</v>
@@ -42972,7 +42744,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.815697987936839</v>
+        <v>1.807160400799318</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.784143593910626</v>
@@ -43061,7 +42833,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.800853981540502</v>
+        <v>1.798051629260429</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.771353561005877</v>
@@ -43150,7 +42922,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.803887467716994</v>
+        <v>1.800519116407496</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.899623020024286</v>
@@ -43239,7 +43011,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.812237467155223</v>
+        <v>1.812827343436406</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.787386562796113</v>
@@ -43328,7 +43100,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.801319901701733</v>
+        <v>1.807765375710653</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.910040333913813</v>
@@ -43417,7 +43189,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.790758927998907</v>
+        <v>1.800063652176222</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.016173283786098</v>
@@ -43506,7 +43278,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.787702457318977</v>
+        <v>1.800094575317614</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.918766450188984</v>
@@ -43595,7 +43367,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.804966648350384</v>
+        <v>1.816432356788759</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.597607819748648</v>
@@ -43684,7 +43456,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.80493420406278</v>
+        <v>1.822627343431835</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.364912915894987</v>
@@ -43773,7 +43545,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.809233321436684</v>
+        <v>1.824656055240115</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.61171290405579</v>
@@ -43862,7 +43634,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.808005554102391</v>
+        <v>1.827632018211372</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.508008451619076</v>
@@ -43951,7 +43723,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.799792703592797</v>
+        <v>1.819181242821845</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.482530153746755</v>
@@ -44040,7 +43812,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.794824786522647</v>
+        <v>1.818828125156902</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.925761945018466</v>
@@ -44129,7 +43901,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.790400393062978</v>
+        <v>1.811922266643121</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.61413202414721</v>
@@ -44218,7 +43990,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.78778035003351</v>
+        <v>1.809475198094081</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.921843186835502</v>
@@ -44307,7 +44079,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.78299103238748</v>
+        <v>1.807969159903876</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.615750303340553</v>
@@ -44396,7 +44168,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.7956015437465</v>
+        <v>1.819190999296561</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.40829517621883</v>
@@ -44485,7 +44257,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.782678702451981</v>
+        <v>1.809904668419017</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.541300292724197</v>
@@ -44574,7 +44346,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.762033214826495</v>
+        <v>1.787548982985064</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.477805461878452</v>
@@ -44663,7 +44435,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.740623883490222</v>
+        <v>1.761516147262654</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.308700512750239</v>
@@ -44752,7 +44524,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.73533621793583</v>
+        <v>1.749546582069746</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.161697679883743</v>
@@ -44841,7 +44613,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.723450787798485</v>
+        <v>1.734071228191143</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.941896845329901</v>
@@ -44930,7 +44702,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.721838674989699</v>
+        <v>1.730218936107645</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.064123294833066</v>
@@ -45019,7 +44791,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.698834587277836</v>
+        <v>1.709103679288736</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.931551717054263</v>
@@ -45108,7 +44880,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.700983990034074</v>
+        <v>1.714261658524223</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.070958971639576</v>
@@ -45197,7 +44969,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.715109838143141</v>
+        <v>1.727342621280182</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.022466048096878</v>
@@ -45286,7 +45058,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.696056570527836</v>
+        <v>1.703840226050747</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.386968063499912</v>
@@ -45375,7 +45147,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.705355443313373</v>
+        <v>1.712581600240427</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.156659779980505</v>
@@ -45464,7 +45236,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.704548664945077</v>
+        <v>1.711344644227367</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.976179435389531</v>
@@ -45553,7 +45325,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.705539499815519</v>
+        <v>1.713240178280198</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.205725383449669</v>
@@ -45839,7 +45611,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.855007718733958</v>
+        <v>1.881623721270179</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.078114296443279</v>
@@ -45928,7 +45700,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.884162281612433</v>
+        <v>1.909347729006525</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.343950715725498</v>
@@ -46017,7 +45789,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.896116071296926</v>
+        <v>1.920035778120528</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.146510009832646</v>
@@ -46106,7 +45878,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.895084029172452</v>
+        <v>1.92156499770827</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.193626203515125</v>
@@ -46195,7 +45967,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.889546772404858</v>
+        <v>1.913730909008664</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.63417313931773</v>
@@ -46284,7 +46056,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.889333835619263</v>
+        <v>1.911510762441322</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.254770829128274</v>
@@ -46373,7 +46145,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.885948950339234</v>
+        <v>1.908191855097727</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.773977269349658</v>
@@ -46462,7 +46234,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.889762677836396</v>
+        <v>1.914756667249762</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.402105693597276</v>
@@ -46551,7 +46323,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.90007590784782</v>
+        <v>1.924525400531007</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.385047731165743</v>
@@ -46640,7 +46412,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.902458109348061</v>
+        <v>1.927520930940194</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.807141358810447</v>
@@ -46729,7 +46501,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.907511909323504</v>
+        <v>1.933083850172353</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.492703350223977</v>
@@ -46818,7 +46590,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.913148809201748</v>
+        <v>1.935488019678383</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.725489936273611</v>
@@ -46907,7 +46679,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.909460227677034</v>
+        <v>1.933025814346452</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.035027383350873</v>
@@ -46996,7 +46768,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.904005587452892</v>
+        <v>1.929538655393348</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.091617341836251</v>
@@ -47085,7 +46857,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.876744534460252</v>
+        <v>1.902510678067556</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.309617718299167</v>
@@ -47174,7 +46946,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.881575612768464</v>
+        <v>1.903811794291583</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.321513627631687</v>
@@ -47263,7 +47035,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.877285629982374</v>
+        <v>1.900754065478041</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.2525845459213</v>
@@ -47352,7 +47124,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.864494232181735</v>
+        <v>1.887101182370897</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.168375517785001</v>
@@ -47441,7 +47213,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.895943895338204</v>
+        <v>1.91184597414191</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.367737385920292</v>
@@ -47530,7 +47302,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.879270456552239</v>
+        <v>1.902224351481295</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.158652197566853</v>
@@ -47619,7 +47391,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.882308472408986</v>
+        <v>1.906415521066395</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.202785674374882</v>
@@ -47708,7 +47480,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.886751337700335</v>
+        <v>1.909772547967338</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.557618918621053</v>
@@ -47797,7 +47569,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.879699666579829</v>
+        <v>1.905144233528453</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.299088887981807</v>
@@ -47886,7 +47658,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.858556829136441</v>
+        <v>1.884655526219353</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.430454768969397</v>
@@ -47975,7 +47747,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.857352935452888</v>
+        <v>1.883589745073134</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.428652027538055</v>
@@ -48064,7 +47836,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.853957478322496</v>
+        <v>1.875520299284184</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.419780923507935</v>
@@ -48153,7 +47925,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.851444726251396</v>
+        <v>1.872275498516823</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.301307569318311</v>
@@ -48242,7 +48014,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.854253460804197</v>
+        <v>1.870995193120554</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.024439576335194</v>
@@ -48331,7 +48103,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.8525382403569</v>
+        <v>1.859176831326226</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.148614883052975</v>
@@ -48420,7 +48192,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.877822669033369</v>
+        <v>1.8837975808986</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.460889414285309</v>
@@ -48509,7 +48281,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.876417818976509</v>
+        <v>1.884884710241436</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.262726985676748</v>
@@ -48598,7 +48370,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.875530740963703</v>
+        <v>1.885511608923246</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.653569480645095</v>
@@ -48687,7 +48459,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.889996897646699</v>
+        <v>1.898863787004461</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.406029002035047</v>
@@ -48776,7 +48548,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.89562078161302</v>
+        <v>1.905477250441257</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.113192360672949</v>
@@ -48865,7 +48637,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.905536906471004</v>
+        <v>1.91171553027773</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.401843331362778</v>
@@ -48954,7 +48726,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.892483312967612</v>
+        <v>1.904748784551012</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.5131565848521</v>
@@ -49043,7 +48815,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.900994976265764</v>
+        <v>1.915421185539148</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.205505833052809</v>
@@ -49132,7 +48904,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.900619304982537</v>
+        <v>1.913741298171772</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.575441677733682</v>
@@ -49221,7 +48993,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.923610744216494</v>
+        <v>1.934792288966335</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.673005560870516</v>
@@ -49310,7 +49082,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.923339976851231</v>
+        <v>1.932494350143203</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.680996748240111</v>
@@ -49399,7 +49171,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.922953950013085</v>
+        <v>1.935158596221671</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.220510789799583</v>
@@ -49488,7 +49260,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.92163912218603</v>
+        <v>1.937487412921158</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.913602861913159</v>
@@ -49577,7 +49349,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.92216328954507</v>
+        <v>1.942282598618713</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.401292403028337</v>
@@ -49666,7 +49438,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.911908194619999</v>
+        <v>1.942433103808397</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.601827420921643</v>
@@ -49755,7 +49527,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.914849738662023</v>
+        <v>1.94465042188323</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.811732146645936</v>
@@ -49844,7 +49616,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.916856952329481</v>
+        <v>1.942987703209468</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.30130693436733</v>
@@ -49933,7 +49705,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.912403895885527</v>
+        <v>1.937736067437803</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.526958628033072</v>
@@ -50022,7 +49794,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.908996641526094</v>
+        <v>1.935873508105337</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.779327746334734</v>
@@ -50111,7 +49883,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.908594551182018</v>
+        <v>1.93465246376386</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.785319311588153</v>
@@ -50200,7 +49972,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.918575446629044</v>
+        <v>1.942108644301225</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.84243399549112</v>
@@ -50289,7 +50061,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.920067388422904</v>
+        <v>1.946091950768725</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.479293370409994</v>
@@ -50378,7 +50150,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.914060072802751</v>
+        <v>1.94188344631364</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.515243456866347</v>
@@ -50467,7 +50239,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.912203959912026</v>
+        <v>1.938266703211101</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.993754775236832</v>
@@ -50556,7 +50328,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.914032400170516</v>
+        <v>1.943420031209198</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.984553096667515</v>
@@ -50645,7 +50417,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.913085073824651</v>
+        <v>1.944247516030306</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.213641324610787</v>
@@ -50734,7 +50506,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.918365612675118</v>
+        <v>1.948651761127681</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.864936426154648</v>
@@ -50823,7 +50595,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.924392995097257</v>
+        <v>1.955652462310294</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.181022958771802</v>
@@ -50912,7 +50684,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.92561340779223</v>
+        <v>1.958301901793617</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.91471620255977</v>
@@ -51001,7 +50773,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.937595402283448</v>
+        <v>1.969798971379332</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.903105738240001</v>
@@ -51090,7 +50862,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.939275073757917</v>
+        <v>1.972763455089464</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.307964624806369</v>
@@ -51179,7 +50951,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.939938295906803</v>
+        <v>1.972320779486492</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.670383688617538</v>
@@ -51268,7 +51040,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.944780173270656</v>
+        <v>1.979785994931782</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.48231427702318</v>
@@ -51357,7 +51129,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.948753667561604</v>
+        <v>1.980492317306738</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.561792612426648</v>
@@ -51446,7 +51218,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.943291124199207</v>
+        <v>1.975092996025045</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.383317611278565</v>
@@ -51535,7 +51307,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.945585270298029</v>
+        <v>1.977866005296403</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.523388070532586</v>
@@ -51624,7 +51396,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.945254174708087</v>
+        <v>1.97321594047118</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.363064017656765</v>
@@ -51713,7 +51485,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.949517453962684</v>
+        <v>1.971784846156723</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.36425532129263</v>
@@ -51802,7 +51574,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.954192125501204</v>
+        <v>1.975093265029541</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.488595565069505</v>
@@ -51891,7 +51663,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.948742664572869</v>
+        <v>1.965199024896832</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.964740699048892</v>
@@ -51980,7 +51752,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.925047630385711</v>
+        <v>1.939185736588506</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.444488076082617</v>
@@ -52069,7 +51841,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.913695996319452</v>
+        <v>1.931567717539191</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.214836697678122</v>
@@ -52158,7 +51930,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.900210372823531</v>
+        <v>1.90952037261468</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.206251745649181</v>
@@ -52247,7 +52019,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.897799493912491</v>
+        <v>1.909792727477596</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.529227230803068</v>
@@ -52336,7 +52108,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.896482482612204</v>
+        <v>1.905990315221113</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.107107775816606</v>
@@ -52425,7 +52197,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.887087888190922</v>
+        <v>1.899879846422704</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.998387186311744</v>
@@ -52514,7 +52286,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.884311315074245</v>
+        <v>1.89971438681249</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.587037223178377</v>
@@ -52603,7 +52375,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.877869369532368</v>
+        <v>1.89121242795441</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.429771722774972</v>
@@ -52692,7 +52464,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.868599574625244</v>
+        <v>1.882698295867289</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.541580815005912</v>
@@ -52781,7 +52553,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.872312809806947</v>
+        <v>1.885987474250331</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.421643638360858</v>
@@ -52870,7 +52642,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.868099323481906</v>
+        <v>1.87934876092941</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.438225578297648</v>
@@ -52959,7 +52731,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.861257408819518</v>
+        <v>1.877534832672515</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.378714619142965</v>
